--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,121 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4551300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4055500</v>
+      </c>
+      <c r="F8" s="3">
         <v>4469500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3989900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>3750700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3777200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4351700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3243900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2893500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3259900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4644400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3192500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3078200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3542800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +822,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +872,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,81 +992,93 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F14" s="3">
         <v>11100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>17300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>6800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>6600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>3600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>9000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>9900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>22200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>16600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>14200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>28800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>29000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3">
         <v>3800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G15" s="3">
         <v>3500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>3500</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1048,8 +1092,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4223100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3684000</v>
+      </c>
+      <c r="F17" s="3">
         <v>4123500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3539400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3224400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3534300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3782600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2728500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2436500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2945100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3486600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2826900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2664200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3161500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>328200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>371500</v>
+      </c>
+      <c r="F18" s="3">
         <v>346000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>450500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>526300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>242900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>569100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>515400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>457000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>314800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1157800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>365600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>414000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>381300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,8 +1233,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1213,57 +1279,69 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>496100</v>
+      </c>
+      <c r="F21" s="3">
         <v>574200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>586000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>636200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>413300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>641900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>631000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>580600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>426500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1274000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>467600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>514400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>449400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>300</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1271,11 +1349,11 @@
       <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
+      <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>300</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
@@ -1283,11 +1361,11 @@
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1301,96 +1379,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>328200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>371300</v>
+      </c>
+      <c r="F23" s="3">
         <v>345700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>450300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>526000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>242900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>569100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>515400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>457000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>314800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1157800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>365600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>414000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>381300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>56000</v>
+      </c>
+      <c r="F24" s="3">
         <v>61100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>58200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>73900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>11200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>109100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>55900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>54500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>68600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>344600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>50800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>60400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>43100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>285000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>315300</v>
+      </c>
+      <c r="F26" s="3">
         <v>284600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>392100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>452100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>231700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>460000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>459500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>402500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>246200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>813200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>314800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>353600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>338200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>288900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>300900</v>
+      </c>
+      <c r="F27" s="3">
         <v>277100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>386300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>429900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>236500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>456300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>456600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>397100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>245100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>810200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>309500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>348900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>318000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1591,15 +1711,15 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>596700</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,8 +1829,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1741,52 +1879,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>288900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>300900</v>
+      </c>
+      <c r="F33" s="3">
         <v>277100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>386300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>429900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>236500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>456300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>456600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>397100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>841800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>810200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>309500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>348900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>318000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>288900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>300900</v>
+      </c>
+      <c r="F35" s="3">
         <v>277100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>386300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>429900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>236500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>456300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>456600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>397100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>841800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>810200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>309500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>348900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>318000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2128,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3482700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2515900</v>
+      </c>
+      <c r="F41" s="3">
         <v>3198000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3315900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2259700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2977500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2926700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2342000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2335700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2470800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2795000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2006400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1534700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2719600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,52 +2224,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1691000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1740300</v>
+      </c>
+      <c r="F43" s="3">
         <v>1635700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1549200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1641100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1413100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1514400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1455600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1638400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1469800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1516600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1381400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1447000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1361900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2324,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,140 +2424,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>94412400</v>
+        <v>94157700</v>
       </c>
       <c r="E47" s="3">
-        <v>91195200</v>
+        <v>96056700</v>
       </c>
       <c r="F47" s="3">
-        <v>88543900</v>
+        <v>94038200</v>
       </c>
       <c r="G47" s="3">
+        <v>90903700</v>
+      </c>
+      <c r="H47" s="3">
+        <v>88324000</v>
+      </c>
+      <c r="I47" s="3">
         <v>84766600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>84007200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>82404800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>81952800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>82102700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>81203400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>79050500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>77812000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>75835500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>973800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>967700</v>
+      </c>
+      <c r="F48" s="3">
         <v>961700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>959500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>933200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>767300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>770600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>762900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>775200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>759500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>754600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>750300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>718800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>699000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3333000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3480500</v>
+      </c>
+      <c r="F49" s="3">
         <v>3492400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2412200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>2420900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2415100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2482600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2458600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2489100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2383500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>2369900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>2344600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2355500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2346100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,8 +2674,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2486,8 +2724,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>246903900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>276087800</v>
+      </c>
+      <c r="F54" s="3">
         <v>270238400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>267918000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>259419900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>243036100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>258758300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>252104000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>253636500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>253941200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>247933600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>240153900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>235496000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>228014300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,8 +2868,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2654,96 +2914,114 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>105600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>93400</v>
+      </c>
+      <c r="F58" s="3">
         <v>96100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>76800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>43900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>42900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>36100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>64500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>78100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>39500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>58800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>42000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>59500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>51400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>179838200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>208008600</v>
+      </c>
+      <c r="F59" s="3">
         <v>202512800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>203727800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>198723000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>185601300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>201994800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>196987200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>198011900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>198294200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>193274400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>188508900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>185386500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>178689500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,96 +3064,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3670100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3765900</v>
+      </c>
+      <c r="F61" s="3">
         <v>3797400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3795400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3302000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3259600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>3245500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3219900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3196600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3178400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3175400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3126800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3126200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3125700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1450300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1796600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1928100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1687500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1318700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>958400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>911400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>887900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>909000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1092500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1515200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1281800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1048100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>972400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>233996400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>261469800</v>
+      </c>
+      <c r="F66" s="3">
         <v>255434200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>253883300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>246725500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>231646100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>247057500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>240464700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>241449600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>241091900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>235937200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>228985800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>224879900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>217787000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11198800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>11074300</v>
+      </c>
+      <c r="F72" s="3">
         <v>10927800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>10805800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>10571900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>10290200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>10207900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>9904300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>9598300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>9482900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>8784600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>8112200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>7937400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>7720400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12907500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14618000</v>
+      </c>
+      <c r="F76" s="3">
         <v>14804200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>14034700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>12694400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>11390000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11700800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>11639300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12186900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12849300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11996400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11168100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10616100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10227300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>288900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>300900</v>
+      </c>
+      <c r="F81" s="3">
         <v>277100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>386300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>429900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>236500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>456300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>456600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>397100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>841800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>810200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>309500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>348900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>318000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,52 +4013,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3">
+        <v>124600</v>
+      </c>
+      <c r="F83" s="3">
         <v>228200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>135500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>109900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>170400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>72800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>115600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>123600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>111700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>116200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>102000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>100400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>68100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1589100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1028400</v>
+      </c>
+      <c r="F89" s="3">
         <v>1786400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>1502000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1176400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1442600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2075700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>891700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>746500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>559300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1799600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1306200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>522900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>930500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-32700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-36000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-29400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-18900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-29800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-17600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-26000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-31500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-29200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-60300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-43800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-45800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-912700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2762300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-852900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-979900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-735100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-813400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-673300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-656300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-153600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-152400</v>
+      </c>
+      <c r="F96" s="3">
         <v>-153000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-150400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-150200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-152100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-150700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-148500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-147300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-141500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-135800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-132700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-130000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-123800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,52 +4799,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>290400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1051800</v>
+      </c>
+      <c r="F100" s="3">
         <v>677900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>407100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-403100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-98000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>576200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>476200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>98300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-148400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-197600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-161200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>123200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>227200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4403,48 +4899,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>966800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-682100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-117900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1056200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-717800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>50800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>584700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-135100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-324200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>788600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>471700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>501400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,127 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3114600</v>
+      </c>
+      <c r="E8" s="3">
         <v>4551300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4055500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4469500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3989900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3750700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3777200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4351700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3243900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2893500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3259900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4644400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3192500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3078200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3542800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +887,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,78 +1014,84 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>8300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>17300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>16600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>28800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>29000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>3800</v>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F15" s="3">
         <v>3800</v>
       </c>
       <c r="G15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="H15" s="3">
         <v>3500</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
+      <c r="I15" s="3">
+        <v>3500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
@@ -1080,8 +1102,8 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2616000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4223100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3684000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4123500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3539400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3224400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3534300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3782600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2728500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2436500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2945100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3486600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2826900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2664200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3161500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>498600</v>
+      </c>
+      <c r="E18" s="3">
         <v>328200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>371500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>346000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>450500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>526300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>242900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>569100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>515400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>457000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>314800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1157800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>365600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>414000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>381300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,8 +1267,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1285,79 +1318,85 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
         <v>496100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>574200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>586000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>636200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>413300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>641900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>631000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>580600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>426500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1274000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>467600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>514400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>449400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1367,8 +1406,8 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1385,108 +1424,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>498600</v>
+      </c>
+      <c r="E23" s="3">
         <v>328200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>371300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>345700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>450300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>526000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>242900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>569100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>515400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>457000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>314800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1157800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>365600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>414000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>381300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E24" s="3">
         <v>43200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>56000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>61100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>58200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>73900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>109100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>55900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>54500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>68600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>344600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>50800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>60400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>43100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>416100</v>
+      </c>
+      <c r="E26" s="3">
         <v>285000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>315300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>284600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>392100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>452100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>231700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>460000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>459500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>402500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>246200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>813200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>314800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>353600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>338200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>398300</v>
+      </c>
+      <c r="E27" s="3">
         <v>288900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>277100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>386300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>429900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>236500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>456300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>456600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>397100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>245100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>810200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>309500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>348900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>318000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1717,12 +1777,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>596700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,8 +1901,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1885,58 +1954,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>398300</v>
+      </c>
+      <c r="E33" s="3">
         <v>288900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>277100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>386300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>429900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>236500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>456300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>456600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>397100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>841800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>810200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>309500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>348900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>318000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>398300</v>
+      </c>
+      <c r="E35" s="3">
         <v>288900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>277100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>386300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>429900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>236500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>456300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>456600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>397100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>841800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>810200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>309500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>348900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>318000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,58 +2215,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3150400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3482700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2515900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3198000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3315900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2259700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2977500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2926700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2342000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2335700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2470800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2795000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2006400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1534700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2719600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,58 +2319,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1691000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1740300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1635700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1549200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1641100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1413100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1514400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1455600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1638400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1469800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1516600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1381400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1447000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1361900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,158 +2531,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>100558600</v>
+      </c>
+      <c r="E47" s="3">
         <v>94157700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>96056700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>94038200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>90903700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>88324000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>84766600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>84007200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>82404800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>81952800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>82102700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>81203400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>79050500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>77812000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>75835500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>993100</v>
+      </c>
+      <c r="E48" s="3">
         <v>973800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>967700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>961700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>959500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>933200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>767300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>770600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>762900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>775200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>759500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>754600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>750300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>718800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>699000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3340200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3333000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3480500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3492400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2412200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2420900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2415100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2482600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2458600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2489100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2383500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2369900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2344600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2355500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2346100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,8 +2796,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2730,8 +2849,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>271309400</v>
+      </c>
+      <c r="E54" s="3">
         <v>246903900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>276087800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>270238400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>267918000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>259419900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>243036100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>258758300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>252104000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>253636500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>253941200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>247933600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>240153900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>235496000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>228014300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,8 +2999,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2920,108 +3050,117 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E58" s="3">
         <v>105600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>93400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>96100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>76800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>43900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>42900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>36100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>64500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>78100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>39500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>58800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>42000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>59500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>51400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>199248400</v>
+      </c>
+      <c r="E59" s="3">
         <v>179838200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>208008600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>202512800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>203727800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>198723000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>185601300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>201994800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>196987200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>198011900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>198294200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>193274400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>188508900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>185386500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>178689500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,108 +3209,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4163400</v>
+      </c>
+      <c r="E61" s="3">
         <v>3670100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3765900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3797400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3795400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3302000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3259600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3245500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3219900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3196600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3178400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3175400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3126800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3126200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3125700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2061500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1450300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1796600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1928100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1687500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1318700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>958400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>911400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>887900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>909000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1092500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1515200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1281800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1048100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>972400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>256066300</v>
+      </c>
+      <c r="E66" s="3">
         <v>233996400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>261469800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>255434200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>253883300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>246725500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>231646100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>247057500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>240464700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>241449600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>241091900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>235937200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>228985800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>224879900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>217787000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11441400</v>
+      </c>
+      <c r="E72" s="3">
         <v>11198800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11074300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10927800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10805800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10571900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10290200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10207900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9904300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9598300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9482900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8784600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8112200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7937400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7720400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15243100</v>
+      </c>
+      <c r="E76" s="3">
         <v>12907500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14618000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14804200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14034700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12694400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11390000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11700800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11639300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12186900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12849300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11996400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11168100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10616100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10227300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>398300</v>
+      </c>
+      <c r="E81" s="3">
         <v>288900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>277100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>386300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>429900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>236500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>456300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>456600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>397100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>841800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>810200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>309500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>348900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>318000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
         <v>124600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>228200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>135500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>109900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>170400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>72800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>115600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>123600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>111700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>116200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>102000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>68100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>457000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1589100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1028400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1786400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1502000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1176400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1442600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2075700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>891700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>746500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>559300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1799600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1306200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>522900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>930500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-28400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-29400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-17600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-60300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-43800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-45800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1308400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-912700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-852900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-979900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-735100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-813400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-673300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-656300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-153500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-153600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-152400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-153000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-150400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-150200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-152100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-150700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-148500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-147300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-141500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-135800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-132700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-130000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-123800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,58 +5047,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>519100</v>
+      </c>
+      <c r="E100" s="3">
         <v>290400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1051800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>677900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>407100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-403100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-98000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>576200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>476200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>98300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-148400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-197600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-161200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>123200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>227200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4905,54 +5153,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-332300</v>
+      </c>
+      <c r="E102" s="3">
         <v>966800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-682100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-117900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1056200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-717800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>50800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>584700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-135100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-324200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>788600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>471700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>501400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,133 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3310700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3114600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4551300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4055500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4469500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3989900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3750700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3777200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4351700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3243900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2893500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3259900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4644400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3192500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3078200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3542800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +843,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +899,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,50 +1047,53 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>8300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>11100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>17300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>28800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>29000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,20 +1103,20 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>3800</v>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G15" s="3">
         <v>3800</v>
       </c>
       <c r="H15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="I15" s="3">
         <v>3500</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+      <c r="J15" s="3">
+        <v>3500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
@@ -1105,8 +1127,8 @@
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1123,8 +1145,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3035600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2616000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4223100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3684000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4123500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3539400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3224400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3534300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3782600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2728500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2436500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2945100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3486600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2826900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2664200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3161500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>275100</v>
+      </c>
+      <c r="E18" s="3">
         <v>498600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>328200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>371500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>346000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>450500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>526300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>242900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>569100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>515400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>457000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>314800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1157800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>365600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>414000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>381300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,8 +1300,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,8 +1354,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1332,50 +1368,53 @@
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
         <v>496100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>574200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>586000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>636200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>413300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>641900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>631000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>580600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>426500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1274000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>467600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>514400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>449400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1385,21 +1424,21 @@
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1409,8 +1448,8 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1427,114 +1466,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>275100</v>
+      </c>
+      <c r="E23" s="3">
         <v>498600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>328200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>371300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>345700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>450300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>526000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>242900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>569100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>515400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>457000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>314800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1157800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>365600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>414000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>381300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39200</v>
+      </c>
+      <c r="E24" s="3">
         <v>82500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>43200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>56000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>61100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>58200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>73900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>109100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>54500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>68600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>344600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>50800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>60400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>43100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>235900</v>
+      </c>
+      <c r="E26" s="3">
         <v>416100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>285000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>315300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>284600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>392100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>452100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>231700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>460000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>459500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>402500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>246200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>813200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>314800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>353600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>338200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E27" s="3">
         <v>398300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>288900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>277100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>386300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>429900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>236500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>456300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>456600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>397100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>245100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>810200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>309500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>348900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>318000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1780,12 +1840,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>596700</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,8 +1970,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1957,61 +2026,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E33" s="3">
         <v>398300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>288900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>277100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>386300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>429900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>236500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>456300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>456600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>397100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>841800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>810200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>309500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>348900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>318000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E35" s="3">
         <v>398300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>288900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>277100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>386300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>429900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>236500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>456300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>456600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>397100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>841800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>810200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>309500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>348900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>318000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2301,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3556700</v>
+      </c>
+      <c r="E41" s="3">
         <v>3150400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3482700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2515900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3198000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3315900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2259700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2977500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2926700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2342000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2335700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2470800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2795000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2006400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1534700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2719600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2322,61 +2411,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1530200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1760000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1691000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1740300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1635700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1549200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1641100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1413100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1514400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1455600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1638400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1469800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1516600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1381400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1447000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1361900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2523,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2579,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,167 +2635,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>103033800</v>
+      </c>
+      <c r="E47" s="3">
         <v>100558600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>94157700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>96056700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>94038200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>90903700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>88324000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>84766600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>84007200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>82404800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>81952800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>82102700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>81203400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>79050500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>77812000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>75835500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>998800</v>
+      </c>
+      <c r="E48" s="3">
         <v>993100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>973800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>967700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>961700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>959500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>933200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>767300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>770600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>762900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>775200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>759500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>754600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>750300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>718800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>699000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3358800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3340200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3333000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3480500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3492400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2412200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2420900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2415100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2482600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2458600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2489100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2383500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2369900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2344600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2355500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2346100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,8 +2915,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2852,8 +2971,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>278484800</v>
+      </c>
+      <c r="E54" s="3">
         <v>271309400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>246903900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>276087800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>270238400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>267918000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>259419900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>243036100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>258758300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>252104000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>253636500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>253941200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>247933600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>240153900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>235496000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>228014300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,8 +3129,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3053,114 +3183,123 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E58" s="3">
         <v>76300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>105600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>93400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>96100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>76800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>42900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>36100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>64500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>78100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>39500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>58800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>42000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>59500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>51400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>204706300</v>
+      </c>
+      <c r="E59" s="3">
         <v>199248400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>179838200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>208008600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>202512800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>203727800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>198723000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>185601300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>201994800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>196987200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>198011900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>198294200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>193274400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>188508900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>185386500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>178689500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,114 +3351,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4279000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4163400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3670100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3765900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3797400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3795400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3302000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3259600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3245500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3219900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3196600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3178400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3175400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3126800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3126200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3125700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2106900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2061500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1450300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1796600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1928100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1687500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1318700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>958400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>911400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>887900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>909000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1092500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1515200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1281800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1048100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>972400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>262833900</v>
+      </c>
+      <c r="E66" s="3">
         <v>256066300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>233996400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>261469800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>255434200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>253883300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>246725500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>231646100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>247057500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>240464700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>241449600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>241091900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>235937200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>228985800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>224879900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>217787000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11521400</v>
+      </c>
+      <c r="E72" s="3">
         <v>11441400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11198800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11074300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10927800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10805800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10571900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10290200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10207900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9904300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9598300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9482900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8784600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8112200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7937400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7720400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15650900</v>
+      </c>
+      <c r="E76" s="3">
         <v>15243100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12907500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14618000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14804200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14034700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12694400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11390000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11700800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11639300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12186900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12849300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11996400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11168100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10616100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10227300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E81" s="3">
         <v>398300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>288900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>277100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>386300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>429900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>236500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>456300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>456600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>397100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>841800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>810200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>309500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>348900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>318000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,8 +4410,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4224,50 +4422,53 @@
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
         <v>124600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>228200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>135500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>109900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>170400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>72800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>115600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>123600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>111700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>116200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>102000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>68100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1064300</v>
+      </c>
+      <c r="E89" s="3">
         <v>457000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1589100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1028400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1786400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1502000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1176400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1442600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2075700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>891700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>746500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>559300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1799600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1306200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>522900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>930500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-43800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1418800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-912700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-852900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-979900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-735100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-813400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-673300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-656300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5070,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-153500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-153600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-152400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-153000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-150400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-150200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-152100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-150700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-148500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-147300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-141500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-135800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-132700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-130000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-123800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,61 +5292,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>760800</v>
+      </c>
+      <c r="E100" s="3">
         <v>519100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>290400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1051800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>677900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>407100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-403100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-98000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>576200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>476200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>98300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-148400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-197600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-161200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>123200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>227200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5156,57 +5404,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>406300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-332300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>966800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-682100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-117900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1056200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-717800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>50800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>584700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-135100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-324200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>788600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>471700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>501400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,139 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3765100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3310700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3114600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4551300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4055500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4469500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3989900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3750700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3777200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4351700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3243900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2893500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3259900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4644400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3192500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3078200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3542800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1052,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1050,50 +1069,53 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>8300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>17300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>28800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>29000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,20 +1128,20 @@
       <c r="F15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="3">
-        <v>3800</v>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="3">
         <v>3800</v>
       </c>
       <c r="I15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="J15" s="3">
         <v>3500</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
+      <c r="K15" s="3">
+        <v>3500</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
@@ -1130,8 +1152,8 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1148,8 +1170,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3173500</v>
+      </c>
+      <c r="E17" s="3">
         <v>3035600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2616000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4223100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3684000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4123500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3539400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3224400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3534300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3782600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2728500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2436500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2945100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3486600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2826900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2664200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3161500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>591600</v>
+      </c>
+      <c r="E18" s="3">
         <v>275100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>498600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>328200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>371500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>346000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>450500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>526300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>242900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>569100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>515400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>457000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>314800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1157800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>365600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>414000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>381300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,8 +1333,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1357,8 +1390,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1371,50 +1407,53 @@
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
         <v>496100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>574200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>586000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>636200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>413300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>641900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>631000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>580600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>426500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1274000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>467600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>514400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>449400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1427,21 +1466,21 @@
       <c r="F22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1451,8 +1490,8 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1469,120 +1508,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>591600</v>
+      </c>
+      <c r="E23" s="3">
         <v>275100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>498600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>328200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>371300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>345700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>450300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>526000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>242900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>569100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>515400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>457000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>314800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1157800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>365600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>414000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>381300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100100</v>
+      </c>
+      <c r="E24" s="3">
         <v>39200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>82500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>43200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>56000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>61100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>58200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>73900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>109100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>55900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>54500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>68600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>344600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>50800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>60400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>43100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>491500</v>
+      </c>
+      <c r="E26" s="3">
         <v>235900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>416100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>285000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>315300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>284600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>392100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>452100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>231700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>460000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>459500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>402500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>246200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>813200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>314800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>353600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>338200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>472600</v>
+      </c>
+      <c r="E27" s="3">
         <v>236000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>398300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>288900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>300900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>277100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>386300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>429900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>236500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>456300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>456600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>397100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>245100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>810200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>309500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>348900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>318000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,12 +1903,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>596700</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,8 +2039,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2029,64 +2098,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>472600</v>
+      </c>
+      <c r="E33" s="3">
         <v>236000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>398300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>288900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>300900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>277100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>386300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>429900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>236500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>456300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>456600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>397100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>841800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>810200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>309500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>348900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>318000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>472600</v>
+      </c>
+      <c r="E35" s="3">
         <v>236000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>398300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>288900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>300900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>277100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>386300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>429900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>236500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>456300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>456600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>397100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>841800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>810200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>309500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>348900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>318000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,64 +2387,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2849800</v>
+      </c>
+      <c r="E41" s="3">
         <v>3556700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3150400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3482700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2515900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3198000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3315900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2259700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2977500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2926700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2342000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2335700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2470800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2795000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2006400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1534700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2719600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,64 +2503,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1723800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1530200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1760000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1691000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1740300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1635700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1549200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1641100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1413100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1514400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1455600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1638400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1469800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1516600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1381400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1447000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1361900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2621,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,8 +2680,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2638,176 +2739,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>106306900</v>
+      </c>
+      <c r="E47" s="3">
         <v>103033800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>100558600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>94157700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>96056700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>94038200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>90903700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>88324000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>84766600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>84007200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>82404800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>81952800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>82102700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>81203400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>79050500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>77812000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>75835500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1019000</v>
+      </c>
+      <c r="E48" s="3">
         <v>998800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>993100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>973800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>967700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>961700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>959500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>933200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>767300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>770600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>762900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>775200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>759500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>754600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>750300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>718800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>699000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3434000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3358800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3340200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3333000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3480500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3492400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2412200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2420900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2415100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2482600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2458600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2489100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2383500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2369900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2344600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2355500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2346100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,8 +3034,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2974,8 +3093,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>296627700</v>
+      </c>
+      <c r="E54" s="3">
         <v>278484800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>271309400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>246903900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>276087800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>270238400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>267918000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>259419900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>243036100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>258758300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>252104000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>253636500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>253941200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>247933600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>240153900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>235496000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>228014300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,8 +3259,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3186,120 +3316,129 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>84700</v>
+      </c>
+      <c r="E58" s="3">
         <v>76600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>76300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>105600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>93400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>96100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>76800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>43900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>42900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>36100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>64500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>78100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>39500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>58800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>42000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>59500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>51400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>220270800</v>
+      </c>
+      <c r="E59" s="3">
         <v>204706300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>199248400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>179838200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>208008600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>202512800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>203727800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>198723000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>185601300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>201994800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>196987200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>198011900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>198294200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>193274400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>188508900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>185386500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>178689500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3354,120 +3493,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4279200</v>
+      </c>
+      <c r="E61" s="3">
         <v>4279000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4163400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3670100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3765900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3797400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3795400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3302000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3259600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3245500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3219900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3196600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3178400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3175400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3126800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3126200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3125700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2330800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2106900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2061500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1450300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1796600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1928100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1687500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1318700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>958400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>911400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>887900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>909000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1092500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1515200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1281800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1048100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>972400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>280068800</v>
+      </c>
+      <c r="E66" s="3">
         <v>262833900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>256066300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>233996400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>261469800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>255434200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>253883300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>246725500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>231646100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>247057500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>240464700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>241449600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>241091900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>235937200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>228985800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>224879900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>217787000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11838000</v>
+      </c>
+      <c r="E72" s="3">
         <v>11521400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11441400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11198800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11074300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10927800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10805800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10571900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10290200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10207900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9904300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9598300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9482900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8784600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8112200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7937400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7720400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16558900</v>
+      </c>
+      <c r="E76" s="3">
         <v>15650900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15243100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12907500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14618000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14804200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14034700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12694400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11390000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11700800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11639300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12186900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12849300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11996400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11168100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10616100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10227300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>472600</v>
+      </c>
+      <c r="E81" s="3">
         <v>236000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>398300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>288900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>300900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>277100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>386300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>429900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>236500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>456300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>456600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>397100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>841800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>810200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>309500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>348900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>318000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,8 +4608,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4425,50 +4623,53 @@
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
         <v>124600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>228200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>135500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>109900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>170400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>72800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>115600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>123600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>111700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>116200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>102000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>68100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>628200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1064300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>457000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1589100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1028400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1786400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1502000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1176400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1442600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2075700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>891700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>746500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>559300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1799600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1306200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>522900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>930500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-36500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-43800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1385900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1418800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-912700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-852900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-979900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-735100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-813400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-673300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-656300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,8 +5303,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5080,55 +5313,58 @@
         <v>-153700</v>
       </c>
       <c r="E96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-153500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-153600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-152400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-153000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-150400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-150200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-152100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-150700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-148500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-147300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-141500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-135800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-132700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-130000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-123800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,64 +5537,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E100" s="3">
         <v>760800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>519100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>290400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1051800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>677900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>407100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-403100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-98000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>576200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>476200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>98300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-148400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-197600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-161200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>123200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>227200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5407,60 +5655,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-706900</v>
+      </c>
+      <c r="E102" s="3">
         <v>406300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-332300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>966800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-682100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-117900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1056200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-717800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>50800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>584700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-135100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-324200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>788600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>471700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>501400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3208500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3765100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3310700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3114600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4551300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4055500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4469500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3989900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3750700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3777200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4351700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3243900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2893500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3259900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4644400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3192500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3078200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3542800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +861,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1072,50 +1091,53 @@
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>8300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>11100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>17300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>16600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>28800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>29000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,20 +1153,20 @@
       <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="3">
-        <v>3800</v>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I15" s="3">
         <v>3800</v>
       </c>
       <c r="J15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="K15" s="3">
         <v>3500</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
+      <c r="L15" s="3">
+        <v>3500</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
@@ -1155,8 +1177,8 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2594600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3173500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3035600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2616000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4223100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3684000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4123500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3539400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3224400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3534300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3782600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2728500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2436500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2945100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3486600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2826900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2664200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3161500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>613900</v>
+      </c>
+      <c r="E18" s="3">
         <v>591600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>275100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>498600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>328200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>371500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>346000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>450500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>526300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>242900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>569100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>515400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>457000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>314800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1157800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>365600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>414000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>381300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,8 +1366,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1393,8 +1426,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1410,50 +1446,53 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>496100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>574200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>586000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>636200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>413300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>641900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>631000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>580600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>426500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1274000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>467600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>514400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>449400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1469,21 +1508,21 @@
       <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1493,8 +1532,8 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1511,126 +1550,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>613900</v>
+      </c>
+      <c r="E23" s="3">
         <v>591600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>275100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>498600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>328200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>371300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>345700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>450300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>526000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>242900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>569100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>515400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>457000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>314800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1157800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>365600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>414000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>381300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E24" s="3">
         <v>100100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>39200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>82500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>43200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>56000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>61100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>58200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>73900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>109100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>55900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>54500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>68600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>344600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>50800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>60400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>43100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>516300</v>
+      </c>
+      <c r="E26" s="3">
         <v>491500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>235900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>416100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>285000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>315300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>284600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>392100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>452100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>231700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>460000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>459500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>402500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>246200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>813200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>314800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>353600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>338200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>517100</v>
+      </c>
+      <c r="E27" s="3">
         <v>472600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>236000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>398300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>288900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>300900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>277100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>386300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>429900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>236500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>456300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>456600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>397100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>245100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>810200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>309500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>348900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>318000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,31 +1922,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1906,12 +1966,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>596700</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,8 +2108,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2101,67 +2170,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>517100</v>
+      </c>
+      <c r="E33" s="3">
         <v>472600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>236000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>398300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>288900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>300900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>277100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>386300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>429900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>236500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>456300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>456600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>397100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>841800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>810200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>309500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>348900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>318000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>517100</v>
+      </c>
+      <c r="E35" s="3">
         <v>472600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>236000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>398300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>288900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>300900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>277100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>386300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>429900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>236500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>456300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>456600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>397100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>841800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>810200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>309500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>348900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>318000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2003500</v>
+      </c>
+      <c r="E41" s="3">
         <v>2849800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3556700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3150400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3482700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2515900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3198000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3315900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2259700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2977500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2926700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2342000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2335700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2470800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2795000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2006400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1534700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2719600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2506,67 +2595,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1708300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1723800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1530200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1760000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1691000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1740300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1635700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1549200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1641100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1413100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1514400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1455600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1638400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1469800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1516600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1381400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1447000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1361900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,185 +2843,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>104761900</v>
+      </c>
+      <c r="E47" s="3">
         <v>106306900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>103033800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>100558600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>94157700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>96056700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>94038200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>90903700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>88324000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>84766600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>84007200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>82404800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>81952800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>82102700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>81203400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>79050500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>77812000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>75835500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1043700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1019000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>998800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>993100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>973800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>967700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>961700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>959500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>933200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>767300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>770600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>762900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>775200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>759500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>754600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>750300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>718800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>699000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3399300</v>
+      </c>
+      <c r="E49" s="3">
         <v>3434000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3358800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3340200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3333000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3480500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3492400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2412200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2420900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2415100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2482600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2458600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2489100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2383500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2369900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2344600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2355500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2346100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,8 +3153,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3096,8 +3215,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>295634600</v>
+      </c>
+      <c r="E54" s="3">
         <v>296627700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>278484800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>271309400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>246903900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>276087800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>270238400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>267918000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>259419900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>243036100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>258758300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>252104000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>253636500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>253941200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>247933600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>240153900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>235496000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>228014300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,8 +3389,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3319,126 +3449,135 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E58" s="3">
         <v>84700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>76600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>76300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>105600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>93400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>96100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>76800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>42900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>36100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>64500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>78100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>39500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>58800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>42000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>59500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>51400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>221945000</v>
+      </c>
+      <c r="E59" s="3">
         <v>220270800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>204706300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>199248400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>179838200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>208008600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>202512800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>203727800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>198723000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>185601300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>201994800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>196987200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>198011900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>198294200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>193274400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>188508900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>185386500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>178689500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3496,126 +3635,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4279400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4279200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4279000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4163400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3670100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3765900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3797400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3795400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3302000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3259600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3245500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3219900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3196600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3178400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3175400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3126800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3126200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3125700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2065900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2330800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2106900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2061500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1450300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1796600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1928100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1687500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1318700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>958400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>911400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>887900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>909000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1092500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1515200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1281800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1048100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>972400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>280229100</v>
+      </c>
+      <c r="E66" s="3">
         <v>280068800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>262833900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>256066300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>233996400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>261469800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>255434200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>253883300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>246725500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>231646100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>247057500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>240464700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>241449600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>241091900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>235937200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>228985800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>224879900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>217787000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12199200</v>
+      </c>
+      <c r="E72" s="3">
         <v>11838000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11521400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11441400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11198800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11074300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10927800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10805800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10571900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10290200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10207900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9904300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9598300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9482900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8784600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8112200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7937400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7720400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>15405500</v>
+      </c>
+      <c r="E76" s="3">
         <v>16558900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15650900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15243100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12907500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14618000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14804200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14034700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12694400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11390000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11700800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11639300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12186900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12849300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11996400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11168100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10616100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10227300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>517100</v>
+      </c>
+      <c r="E81" s="3">
         <v>472600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>236000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>398300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>288900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>300900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>277100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>386300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>429900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>236500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>456300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>456600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>397100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>841800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>810200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>309500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>348900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>318000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,8 +4806,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4626,50 +4824,53 @@
       <c r="G83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
         <v>124600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>228200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>135500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>109900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>170400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>72800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>115600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>123600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>111700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>116200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>102000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>100400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>68100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>140800</v>
+      </c>
+      <c r="E89" s="3">
         <v>628200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1064300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>457000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1589100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1028400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1786400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1502000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1176400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1442600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2075700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>891700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>746500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>559300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1799600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1306200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>522900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>930500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-36500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-28400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-60300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-43800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1019200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1385900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1418800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-912700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-852900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-979900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-735100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-813400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-673300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-656300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-153700</v>
+        <v>-152200</v>
       </c>
       <c r="E96" s="3">
         <v>-153700</v>
       </c>
       <c r="F96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="G96" s="3">
         <v>-153500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-153600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-152400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-153000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-150400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-150200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-152100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-150700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-148500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-147300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-141500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-135800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-132700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-130000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-123800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,67 +5782,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E100" s="3">
         <v>50800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>760800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>519100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>290400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1051800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>677900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>407100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-403100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-98000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>576200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>476200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>98300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-148400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-197600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-161200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>123200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>227200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5658,63 +5906,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-846300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-706900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>406300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-332300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>966800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-682100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-117900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1056200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-717800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>50800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>584700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-135100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-324200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>788600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>471700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>501400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3539400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3208500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3765100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3310700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3114600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4551300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4055500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4469500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3989900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3750700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3777200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4351700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3243900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2893500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3259900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4644400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3192500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3078200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3542800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,8 +870,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1094,50 +1113,53 @@
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>8300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>11100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>22200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>28800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>29000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1156,20 +1178,20 @@
       <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3">
-        <v>3800</v>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J15" s="3">
         <v>3800</v>
       </c>
       <c r="K15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L15" s="3">
         <v>3500</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
+      <c r="M15" s="3">
+        <v>3500</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
@@ -1180,8 +1202,8 @@
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3106800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2594600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3173500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3035600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2616000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4223100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3684000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4123500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3539400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3224400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3534300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3782600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2728500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2436500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2945100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3486600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2826900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2664200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3161500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>432600</v>
+      </c>
+      <c r="E18" s="3">
         <v>613900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>591600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>275100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>498600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>328200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>371500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>346000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>450500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>526300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>242900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>569100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>515400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>457000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>314800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1157800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>365600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>414000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>381300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,8 +1399,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1429,8 +1462,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1449,50 +1485,53 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <v>496100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>574200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>586000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>636200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>413300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>641900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>631000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>580600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>426500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1274000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>467600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>514400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>449400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,21 +1550,21 @@
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1535,8 +1574,8 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1553,132 +1592,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>432600</v>
+      </c>
+      <c r="E23" s="3">
         <v>613900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>591600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>275100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>498600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>328200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>371300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>345700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>450300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>526000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>242900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>569100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>515400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>457000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>314800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1157800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>365600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>414000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>381300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E24" s="3">
         <v>97600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>39200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>82500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>43200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>56000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>61100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>58200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>73900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>109100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>55900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>54500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>68600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>344600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>50800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>60400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>43100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>371600</v>
+      </c>
+      <c r="E26" s="3">
         <v>516300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>491500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>235900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>416100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>285000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>315300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>284600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>392100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>452100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>231700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>460000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>459500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>402500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>246200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>813200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>314800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>353600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>338200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>361800</v>
+      </c>
+      <c r="E27" s="3">
         <v>517100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>472600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>236000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>398300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>288900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>277100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>386300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>429900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>236500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>456300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>456600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>397100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>245100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>810200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>309500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>348900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>318000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1951,8 +2011,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1969,12 +2029,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>596700</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,8 +2177,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2173,70 +2242,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>361800</v>
+      </c>
+      <c r="E33" s="3">
         <v>517100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>472600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>236000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>398300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>288900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>277100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>386300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>429900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>236500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>456300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>456600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>397100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>841800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>810200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>309500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>348900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>318000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>361800</v>
+      </c>
+      <c r="E35" s="3">
         <v>517100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>472600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>236000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>398300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>288900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>277100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>386300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>429900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>236500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>456300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>456600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>397100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>841800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>810200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>309500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>348900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>318000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2559,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2417400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2003500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2849800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3556700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3150400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3482700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2515900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3198000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3315900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2259700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2977500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2926700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2342000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2335700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2470800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2795000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2006400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1534700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2719600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2598,70 +2687,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1675700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1708300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1723800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1530200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1760000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1691000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1740300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1635700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1549200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1641100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1413100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1514400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1455600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1638400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1469800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1516600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1381400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1447000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1361900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2817,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2882,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,194 +2947,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>105975000</v>
+      </c>
+      <c r="E47" s="3">
         <v>104761900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>106306900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>103033800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>100558600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>94157700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>96056700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>94038200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>90903700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>88324000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>84766600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>84007200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>82404800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>81952800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>82102700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>81203400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>79050500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>77812000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>75835500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1030700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1043700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1019000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>998800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>993100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>973800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>967700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>961700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>959500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>933200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>767300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>770600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>762900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>775200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>759500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>754600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>750300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>718800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>699000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3377100</v>
+      </c>
+      <c r="E49" s="3">
         <v>3399300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3434000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3358800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3340200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3333000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3480500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3492400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2412200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2420900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2415100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2482600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2458600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2489100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2383500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2369900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2344600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2355500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2346100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,8 +3272,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3218,8 +3337,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>302165500</v>
+      </c>
+      <c r="E54" s="3">
         <v>295634600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>296627700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>278484800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>271309400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>246903900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>276087800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>270238400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>267918000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>259419900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>243036100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>258758300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>252104000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>253636500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>253941200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>247933600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>240153900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>235496000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>228014300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,8 +3519,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3452,132 +3582,141 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>82700</v>
+      </c>
+      <c r="E58" s="3">
         <v>84000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>84700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>76600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>76300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>105600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>93400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>96100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>76800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>43900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>42900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>36100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>64500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>78100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>39500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>58800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>42000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>59500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>51400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>226757000</v>
+      </c>
+      <c r="E59" s="3">
         <v>221945000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>220270800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>204706300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>199248400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>179838200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>208008600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>202512800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>203727800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>198723000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>185601300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>201994800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>196987200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>198011900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>198294200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>193274400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>188508900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>185386500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>178689500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,132 +3777,141 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4279500</v>
+      </c>
+      <c r="E61" s="3">
         <v>4279400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4279200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4279000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4163400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3670100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3765900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3797400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3795400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3302000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3259600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3245500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3219900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3196600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3178400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3175400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3126800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3126200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3125700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2324600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2065900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2330800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2106900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2061500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1450300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1796600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1928100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1687500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1318700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>958400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>911400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>887900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>909000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1092500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1515200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1281800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1048100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>972400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>285932400</v>
+      </c>
+      <c r="E66" s="3">
         <v>280229100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>280068800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>262833900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>256066300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>233996400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>261469800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>255434200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>253883300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>246725500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>231646100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>247057500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>240464700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>241449600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>241091900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>235937200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>228985800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>224879900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>217787000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12395000</v>
+      </c>
+      <c r="E72" s="3">
         <v>12199200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11838000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11521400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11441400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11198800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11074300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10927800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10805800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10571900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10290200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10207900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9904300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9598300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9482900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8784600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8112200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7937400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7720400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16233100</v>
+      </c>
+      <c r="E76" s="3">
         <v>15405500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16558900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15650900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15243100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12907500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14618000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14804200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14034700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12694400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11390000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11700800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11639300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12186900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12849300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11996400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11168100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10616100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10227300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>361800</v>
+      </c>
+      <c r="E81" s="3">
         <v>517100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>472600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>236000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>398300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>288900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>277100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>386300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>429900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>236500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>456300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>456600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>397100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>841800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>810200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>309500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>348900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>318000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,8 +5004,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4827,50 +5025,53 @@
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
         <v>124600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>228200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>135500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>109900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>170400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>72800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>115600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>123600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>111700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>116200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>102000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>100400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>68100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>992800</v>
+      </c>
+      <c r="E89" s="3">
         <v>140800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>628200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1064300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>457000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1589100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1028400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1786400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1502000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1176400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1442600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2075700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>891700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>746500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>559300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1799600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1306200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>522900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>930500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,8 +5484,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5274,61 +5494,64 @@
         <v>-22900</v>
       </c>
       <c r="E91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-25900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-36500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-28400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-32700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-60300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-43800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-45800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>76400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1019200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1385900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1418800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-912700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-852900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-979900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-735100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-813400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-673300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-656300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +5769,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-165200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-152200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-153700</v>
       </c>
       <c r="F96" s="3">
         <v>-153700</v>
       </c>
       <c r="G96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="H96" s="3">
         <v>-153500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-153600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-152400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-153000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-150400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-150200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-152100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-150700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-148500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-147300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-141500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-135800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-132700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-130000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-123800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,70 +6027,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-655300</v>
+      </c>
+      <c r="E100" s="3">
         <v>32100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>50800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>760800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>519100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>290400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1051800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>677900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>407100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-403100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-98000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>576200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>476200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>98300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-148400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-197600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-161200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>123200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>227200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5909,66 +6157,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>413900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-846300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-706900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>406300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-332300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>966800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-682100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-117900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1056200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-717800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>50800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>584700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-135100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-324200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>788600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>471700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>501400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,157 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3423700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3539400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3208500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3765100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3310700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3114600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4551300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4055500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4469500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3989900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3750700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3777200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4351700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3243900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2893500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3259900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4644400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3192500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3078200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3542800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,8 +879,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +947,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1116,50 +1135,53 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>8300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>22200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>16600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>28800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>29000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1181,20 +1203,20 @@
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
-        <v>3800</v>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>3800</v>
       </c>
       <c r="L15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="M15" s="3">
         <v>3500</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
+      <c r="N15" s="3">
+        <v>3500</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>5</v>
@@ -1205,8 +1227,8 @@
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1223,8 +1245,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2995600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3106800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2594600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3173500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3035600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2616000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4223100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3684000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4123500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3539400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3224400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3534300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3782600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2728500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2436500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2945100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3486600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2826900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2664200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3161500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>428100</v>
+      </c>
+      <c r="E18" s="3">
         <v>432600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>613900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>591600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>275100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>498600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>328200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>371500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>346000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>450500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>526300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>242900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>569100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>515400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>457000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>314800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1157800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>365600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>414000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>381300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,8 +1432,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1465,8 +1498,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,50 +1524,53 @@
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>496100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>574200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>586000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>636200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>413300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>641900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>631000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>580600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>426500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1274000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>467600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>514400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>449400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,21 +1592,21 @@
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1577,8 +1616,8 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1595,138 +1634,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>428100</v>
+      </c>
+      <c r="E23" s="3">
         <v>432600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>613900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>591600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>275100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>498600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>328200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>371300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>345700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>450300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>526000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>242900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>569100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>515400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>457000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>314800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1157800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>365600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>414000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>381300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E24" s="3">
         <v>61000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>97600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>39200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>82500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>43200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>56000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>61100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>58200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>73900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>109100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>55900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>54500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>68600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>344600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>50800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>60400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>43100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>364300</v>
+      </c>
+      <c r="E26" s="3">
         <v>371600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>516300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>491500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>235900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>416100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>285000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>315300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>284600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>392100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>452100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>231700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>460000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>459500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>402500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>246200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>813200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>314800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>353600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>338200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>359900</v>
+      </c>
+      <c r="E27" s="3">
         <v>361800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>517100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>472600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>236000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>398300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>288900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>277100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>386300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>429900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>236500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>456300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>456600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>397100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>245100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>810200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>309500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>348900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>318000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2014,8 +2074,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2032,12 +2092,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>596700</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,8 +2246,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2245,73 +2314,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>359900</v>
+      </c>
+      <c r="E33" s="3">
         <v>361800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>517100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>472600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>236000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>398300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>288900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>277100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>386300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>429900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>236500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>456300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>456600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>397100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>841800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>810200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>309500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>348900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>318000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>359900</v>
+      </c>
+      <c r="E35" s="3">
         <v>361800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>517100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>472600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>236000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>398300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>288900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>277100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>386300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>429900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>236500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>456300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>456600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>397100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>841800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>810200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>309500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>348900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>318000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,73 +2645,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3145400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2417400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2003500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2849800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3556700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3150400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3482700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2515900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3198000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3315900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2259700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2977500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2926700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2342000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2335700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2470800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2795000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2006400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1534700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2719600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2690,73 +2779,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1713200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1675700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1708300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1723800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1530200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1760000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1691000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1740300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1635700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1549200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1641100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1413100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1514400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1455600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1638400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1469800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1516600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1381400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1447000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1361900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,8 +2915,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,8 +2983,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2950,203 +3051,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>106894400</v>
+      </c>
+      <c r="E47" s="3">
         <v>105975000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>104761900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>106306900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>103033800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>100558600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>94157700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>96056700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>94038200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>90903700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>88324000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>84766600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>84007200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>82404800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>81952800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>82102700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>81203400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>79050500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>77812000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>75835500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1065400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1030700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1043700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1019000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>998800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>993100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>973800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>967700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>961700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>959500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>933200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>767300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>770600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>762900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>775200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>759500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>754600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>750300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>718800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>699000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3277800</v>
+      </c>
+      <c r="E49" s="3">
         <v>3377100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3399300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3434000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3358800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3340200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3333000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3480500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3492400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2412200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2420900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2415100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2482600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2458600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2489100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2383500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2369900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2344600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2355500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2346100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,8 +3391,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3340,8 +3459,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>298908400</v>
+      </c>
+      <c r="E54" s="3">
         <v>302165500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>295634600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>296627700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>278484800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>271309400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>246903900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>276087800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>270238400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>267918000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>259419900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>243036100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>258758300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>252104000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>253636500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>253941200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>247933600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>240153900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>235496000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>228014300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,8 +3649,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3585,138 +3715,147 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E58" s="3">
         <v>82700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>84000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>84700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>76600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>76300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>105600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>93400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>96100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>76800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>43900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>42900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>36100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>64500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>78100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>39500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>58800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>42000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>59500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>51400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>222751400</v>
+      </c>
+      <c r="E59" s="3">
         <v>226757000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>221945000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>220270800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>204706300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>199248400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>179838200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>208008600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>202512800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>203727800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>198723000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>185601300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>201994800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>196987200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>198011900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>198294200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>193274400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>188508900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>185386500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>178689500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3780,138 +3919,147 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4279700</v>
+      </c>
+      <c r="E61" s="3">
         <v>4279500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4279400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4279200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4279000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4163400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3670100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3765900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3797400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3795400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3302000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3259600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3245500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3219900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3196600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3178400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3175400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3126800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3126200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3125700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2345600</v>
+      </c>
+      <c r="E62" s="3">
         <v>2324600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2065900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2330800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2106900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2061500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1450300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1796600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1928100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1687500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1318700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>958400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>911400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>887900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>909000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1092500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1515200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1281800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1048100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>972400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>282837700</v>
+      </c>
+      <c r="E66" s="3">
         <v>285932400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>280229100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>280068800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>262833900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>256066300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>233996400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>261469800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>255434200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>253883300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>246725500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>231646100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>247057500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>240464700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>241449600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>241091900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>235937200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>228985800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>224879900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>217787000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12583900</v>
+      </c>
+      <c r="E72" s="3">
         <v>12395000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12199200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>11838000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11521400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11441400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11198800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11074300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10927800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10805800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10571900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10290200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10207900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9904300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9598300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9482900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8784600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8112200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7937400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7720400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16070700</v>
+      </c>
+      <c r="E76" s="3">
         <v>16233100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>15405500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16558900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15650900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15243100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12907500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14618000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14804200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14034700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12694400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11390000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11700800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11639300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12186900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12849300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11996400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11168100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10616100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10227300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>359900</v>
+      </c>
+      <c r="E81" s="3">
         <v>361800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>517100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>472600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>236000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>398300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>288900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>277100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>386300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>429900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>236500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>456300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>456600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>397100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>841800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>810200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>309500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>348900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>318000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,8 +5202,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,50 +5226,53 @@
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>124600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>228200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>135500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>109900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>170400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>72800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>115600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>123600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>111700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>116200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>102000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>100400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>68100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>973400</v>
+      </c>
+      <c r="E89" s="3">
         <v>992800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>140800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>628200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1064300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>457000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1589100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1028400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1786400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1502000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1176400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1442600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2075700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>891700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>746500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>559300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1799600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1306200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>522900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>930500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22900</v>
+        <v>-63100</v>
       </c>
       <c r="E91" s="3">
         <v>-22900</v>
       </c>
       <c r="F91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-25900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-36500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-28400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-34300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-29200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-60300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-43800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-45800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1924500</v>
+      </c>
+      <c r="E94" s="3">
         <v>76400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1019200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1385900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1418800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-912700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-852900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-979900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-735100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-813400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-673300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-656300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6002,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-168200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-165200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-152200</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-153700</v>
       </c>
       <c r="G96" s="3">
         <v>-153700</v>
       </c>
       <c r="H96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="I96" s="3">
         <v>-153500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-153600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-152400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-153000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-150400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-150200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-152100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-150700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-148500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-147300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-141500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-135800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-132700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-130000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-123800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,73 +6272,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1679100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-655300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>32100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>50800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>760800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>519100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>290400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1051800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>677900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>407100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-403100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-98000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>576200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>476200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>98300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-148400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-197600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-161200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>123200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>227200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6160,69 +6408,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>728000</v>
+      </c>
+      <c r="E102" s="3">
         <v>413900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-846300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-706900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>406300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-332300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>966800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-682100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-117900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1056200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-717800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>50800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>584700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-135100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-324200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>788600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>471700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>501400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,163 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4091100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3423700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3539400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3208500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3765100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3310700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3114600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4551300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4055500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4469500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3989900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3750700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3777200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4351700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3243900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2893500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3259900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4644400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3192500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3078200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3542800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,8 +888,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1128,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1138,50 +1157,53 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>8300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>22200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>16600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>28800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>29000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1206,20 +1228,20 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
-        <v>3800</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <v>3800</v>
       </c>
       <c r="M15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="N15" s="3">
         <v>3500</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
+      <c r="O15" s="3">
+        <v>3500</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -1230,8 +1252,8 @@
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="S15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
@@ -1248,8 +1270,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3482100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2995600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3106800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2594600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3173500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3035600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2616000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4223100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3684000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4123500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3539400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3224400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3534300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3782600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2728500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2436500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2945100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3486600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2826900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2664200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3161500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E18" s="3">
         <v>428100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>432600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>613900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>591600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>275100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>498600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>328200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>371500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>346000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>450500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>526300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>242900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>569100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>515400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>457000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>314800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1157800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>365600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>414000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>381300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,8 +1465,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1501,8 +1534,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1527,50 +1563,53 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>496100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>574200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>586000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>636200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>413300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>641900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>631000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>580600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>426500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1274000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>467600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>514400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>449400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,21 +1634,21 @@
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1619,8 +1658,8 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1637,144 +1676,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E23" s="3">
         <v>428100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>432600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>613900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>591600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>275100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>498600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>328200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>371300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>345700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>450300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>526000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>242900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>569100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>515400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>457000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>314800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1157800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>365600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>414000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>381300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E24" s="3">
         <v>63800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>61000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>97600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>39200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>82500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>43200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>56000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>61100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>58200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>73900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>109100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>55900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>54500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>68600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>344600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>50800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>60400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>43100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>505200</v>
+      </c>
+      <c r="E26" s="3">
         <v>364300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>371600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>516300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>491500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>235900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>416100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>285000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>315300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>284600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>392100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>452100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>231700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>460000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>459500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>402500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>246200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>813200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>314800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>353600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>338200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>471800</v>
+      </c>
+      <c r="E27" s="3">
         <v>359900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>361800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>517100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>472600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>236000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>398300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>288900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>277100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>386300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>429900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>236500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>456300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>456600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>397100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>245100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>810200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>309500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>348900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>318000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2102,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2077,8 +2137,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -2095,12 +2155,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>596700</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,8 +2315,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2317,76 +2386,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>471800</v>
+      </c>
+      <c r="E33" s="3">
         <v>359900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>361800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>517100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>472600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>236000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>398300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>288900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>277100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>386300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>429900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>236500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>456300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>456600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>397100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>841800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>810200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>309500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>348900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>318000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>471800</v>
+      </c>
+      <c r="E35" s="3">
         <v>359900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>361800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>517100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>472600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>236000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>398300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>288900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>277100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>386300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>429900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>236500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>456300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>456600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>397100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>841800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>810200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>309500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>348900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>318000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,76 +2731,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2332000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3145400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2417400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2003500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2849800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3556700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3150400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3482700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2515900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3198000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3315900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2259700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2977500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2926700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2342000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2335700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2470800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2795000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2006400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1534700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2719600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2782,76 +2871,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1842400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1713200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1675700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1708300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1723800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1530200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1760000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1691000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1740300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1635700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1549200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1641100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1413100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1514400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1455600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1638400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1469800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1516600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1381400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1447000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1361900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3013,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3084,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3054,212 +3155,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>106894400</v>
+        <v>106830500</v>
       </c>
       <c r="E47" s="3">
-        <v>105975000</v>
+        <v>104928800</v>
       </c>
       <c r="F47" s="3">
-        <v>104761900</v>
+        <v>104033300</v>
       </c>
       <c r="G47" s="3">
-        <v>106306900</v>
+        <v>102928500</v>
       </c>
       <c r="H47" s="3">
-        <v>103033800</v>
+        <v>104509600</v>
       </c>
       <c r="I47" s="3">
-        <v>100558600</v>
+        <v>101252000</v>
       </c>
       <c r="J47" s="3">
+        <v>98858900</v>
+      </c>
+      <c r="K47" s="3">
         <v>94157700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>96056700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>94038200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>90903700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>88324000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>84766600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>84007200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>82404800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>81952800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>82102700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>81203400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>79050500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>77812000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>75835500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1065400</v>
+        <v>3113400</v>
       </c>
       <c r="E48" s="3">
-        <v>1030700</v>
+        <v>3031000</v>
       </c>
       <c r="F48" s="3">
-        <v>1043700</v>
+        <v>2972400</v>
       </c>
       <c r="G48" s="3">
-        <v>1019000</v>
+        <v>2877100</v>
       </c>
       <c r="H48" s="3">
-        <v>998800</v>
+        <v>2816300</v>
       </c>
       <c r="I48" s="3">
-        <v>993100</v>
+        <v>2780600</v>
       </c>
       <c r="J48" s="3">
+        <v>2692800</v>
+      </c>
+      <c r="K48" s="3">
         <v>973800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>967700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>961700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>959500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>933200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>767300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>770600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>762900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>775200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>759500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>754600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>750300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>718800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>699000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3228200</v>
+      </c>
+      <c r="E49" s="3">
         <v>3277800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3377100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3399300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3434000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3358800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3340200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3333000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3480500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3492400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2412200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2420900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2415100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2482600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2458600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2489100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2383500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2369900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2344600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2355500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2346100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,8 +3510,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3462,8 +3581,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>304657200</v>
+      </c>
+      <c r="E54" s="3">
         <v>298908400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>302165500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>295634600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>296627700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>278484800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>271309400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>246903900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>276087800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>270238400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>267918000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>259419900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>243036100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>258758300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>252104000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>253636500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>253941200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>247933600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>240153900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>235496000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>228014300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,8 +3779,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3718,144 +3848,153 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>79800</v>
+      </c>
+      <c r="E58" s="3">
         <v>74300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>82700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>84000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>84700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>76600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>76300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>105600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>93400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>96100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>76800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>43900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>42900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>36100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>64500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>78100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>39500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>58800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>42000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>59500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>51400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>227029900</v>
+      </c>
+      <c r="E59" s="3">
         <v>222751400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>226757000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>221945000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>220270800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>204706300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>199248400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>179838200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>208008600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>202512800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>203727800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>198723000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>185601300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>201994800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>196987200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>198011900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>198294200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>193274400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>188508900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>185386500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>178689500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3922,144 +4061,153 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4280200</v>
+      </c>
+      <c r="E61" s="3">
         <v>4279700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4279500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4279400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4279200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4279000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4163400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3670100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3765900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3797400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3795400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3302000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3259600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3245500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3219900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3196600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3178400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3175400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3126800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3126200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3125700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2320200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2345600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2324600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2065900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2330800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2106900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2061500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1450300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1796600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1928100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1687500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1318700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>958400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>911400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>887900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>909000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1092500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1515200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1281800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1048100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>972400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>288587800</v>
+      </c>
+      <c r="E66" s="3">
         <v>282837700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>285932400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>280229100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>280068800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>262833900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>256066300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>233996400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>261469800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>255434200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>253883300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>246725500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>231646100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>247057500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>240464700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>241449600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>241091900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>235937200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>228985800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>224879900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>217787000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12884500</v>
+      </c>
+      <c r="E72" s="3">
         <v>12583900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12395000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12199200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>11838000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11521400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11441400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11198800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11074300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10927800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10805800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10571900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10290200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10207900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9904300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9598300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9482900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8784600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8112200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7937400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7720400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16069400</v>
+      </c>
+      <c r="E76" s="3">
         <v>16070700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16233100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15405500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16558900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15650900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15243100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12907500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14618000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14804200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14034700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12694400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11390000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11700800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11639300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12186900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12849300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11996400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11168100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10616100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10227300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>471800</v>
+      </c>
+      <c r="E81" s="3">
         <v>359900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>361800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>517100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>472600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>236000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>398300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>288900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>277100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>386300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>429900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>236500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>456300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>456600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>397100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>841800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>810200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>309500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>348900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>318000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>124600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>228200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>135500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>109900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>170400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>72800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>115600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>123600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>111700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>116200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>102000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>100400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>68100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1111800</v>
+      </c>
+      <c r="E89" s="3">
         <v>973400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>992800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>140800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>628200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1064300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>457000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1589100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1028400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1786400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1502000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1176400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1442600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2075700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>891700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>746500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>559300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1799600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1306200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>522900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>930500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-63100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-22900</v>
       </c>
       <c r="F91" s="3">
         <v>-22900</v>
       </c>
       <c r="G91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-25900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-36500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-28400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-31500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-29200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-60300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-43800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-45800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2790800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1924500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>76400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1019200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1385900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1418800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-912700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-852900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-979900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-735100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-813400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-673300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-656300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6235,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-168500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-168200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-165200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-152200</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-153700</v>
       </c>
       <c r="H96" s="3">
         <v>-153700</v>
       </c>
       <c r="I96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="J96" s="3">
         <v>-153500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-153600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-152400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-153000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-150400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-150200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-152100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-150700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-148500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-147300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-141500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-135800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-132700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-130000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-123800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,76 +6517,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>865600</v>
+      </c>
+      <c r="E100" s="3">
         <v>1679100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-655300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>32100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>50800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>760800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>519100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>290400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1051800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>677900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>407100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-403100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-98000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>576200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>476200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>98300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-148400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-197600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-161200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>123200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>227200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6411,72 +6659,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-813400</v>
+      </c>
+      <c r="E102" s="3">
         <v>728000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>413900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-846300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-706900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>406300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-332300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>966800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-682100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-117900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1056200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-717800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>50800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>584700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-135100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-324200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>788600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>471700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>501400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,169 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3110000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4091100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3423700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3539400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3208500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3765100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3310700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3114600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4551300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4055500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4469500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3989900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3750700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3777200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4351700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3243900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2893500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3259900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4644400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3192500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3078200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3542800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -891,8 +897,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +971,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1147,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,50 +1179,53 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>8300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>22200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>16600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>28800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>29000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1231,20 +1253,20 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
-        <v>3800</v>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>3800</v>
       </c>
       <c r="N15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="O15" s="3">
         <v>3500</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
+      <c r="P15" s="3">
+        <v>3500</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>5</v>
@@ -1255,8 +1277,8 @@
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1273,8 +1295,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2682000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3482100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2995600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3106800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2594600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3173500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3035600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2616000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4223100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3684000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4123500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3539400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3224400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3534300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3782600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2728500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2436500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2945100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3486600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2826900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2664200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3161500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E18" s="3">
         <v>609000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>428100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>432600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>613900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>591600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>275100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>498600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>328200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>371500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>346000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>450500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>526300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>242900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>569100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>515400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>457000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>314800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1157800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>365600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>414000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>381300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,8 +1498,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1537,8 +1570,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,50 +1602,53 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>496100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>574200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>586000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>636200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>413300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>641900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>631000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>580600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>426500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1274000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>467600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>514400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>449400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,21 +1676,21 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1661,8 +1700,8 @@
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1679,150 +1718,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>428000</v>
+      </c>
+      <c r="E23" s="3">
         <v>609000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>428100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>432600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>613900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>591600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>275100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>498600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>328200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>371300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>345700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>450300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>526000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>242900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>569100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>515400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>457000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>314800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1157800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>365600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>414000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>381300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E24" s="3">
         <v>103800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>63800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>61000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>97600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>39200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>82500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>43200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>56000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>61100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>58200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>73900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>109100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>55900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>54500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>68600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>344600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>50800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>60400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>43100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>380700</v>
+      </c>
+      <c r="E26" s="3">
         <v>505200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>364300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>371600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>516300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>491500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>235900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>416100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>285000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>315300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>284600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>392100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>452100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>231700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>460000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>459500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>402500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>246200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>813200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>314800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>353600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>338200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>376200</v>
+      </c>
+      <c r="E27" s="3">
         <v>471800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>359900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>361800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>517100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>472600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>236000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>398300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>288900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>277100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>386300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>429900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>236500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>456300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>456600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>397100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>245100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>810200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>309500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>348900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>318000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,8 +2162,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2140,8 +2200,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2158,12 +2218,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>596700</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2176,8 +2236,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,8 +2384,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2389,79 +2458,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>376200</v>
+      </c>
+      <c r="E33" s="3">
         <v>471800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>359900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>361800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>517100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>472600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>236000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>398300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>288900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>277100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>386300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>429900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>236500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>456300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>456600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>397100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>841800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>810200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>309500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>348900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>318000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>376200</v>
+      </c>
+      <c r="E35" s="3">
         <v>471800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>359900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>361800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>517100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>472600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>236000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>398300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>288900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>277100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>386300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>429900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>236500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>456300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>456600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>397100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>841800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>810200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>309500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>348900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>318000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,79 +2817,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2741200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2332000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3145400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2417400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2003500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2849800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3556700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3150400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3482700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2515900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3198000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3315900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2259700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2977500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2926700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2342000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2335700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2470800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2795000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2006400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1534700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2719600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2874,79 +2963,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2374400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1842400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1713200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1675700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1708300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1723800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1530200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1760000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1691000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1740300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1635700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1549200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1641100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1413100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1514400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1455600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1638400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1469800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1516600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1381400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1447000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1361900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3016,8 +3111,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3087,8 +3185,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3158,221 +3259,233 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>101043300</v>
+      </c>
+      <c r="E47" s="3">
         <v>106830500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>104928800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>104033300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>102928500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>104509600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>101252000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>98858900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>94157700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>96056700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>94038200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>90903700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>88324000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>84766600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>84007200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>82404800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>81952800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>82102700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>81203400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>79050500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>77812000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>75835500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3159800</v>
+      </c>
+      <c r="E48" s="3">
         <v>3113400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3031000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2972400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2877100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2816300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2780600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2692800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>973800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>967700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>961700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>959500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>933200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>767300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>770600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>762900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>775200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>759500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>754600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>750300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>718800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>699000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3262300</v>
+      </c>
+      <c r="E49" s="3">
         <v>3228200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3277800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3377100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3399300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3434000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3358800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3340200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3333000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3480500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3492400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2412200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2420900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2415100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2482600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2458600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2489100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2383500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2369900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2344600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2355500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2346100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,8 +3629,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3584,8 +3703,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>291538500</v>
+      </c>
+      <c r="E54" s="3">
         <v>304657200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>298908400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>302165500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>295634600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>296627700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>278484800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>271309400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>246903900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>276087800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>270238400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>267918000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>259419900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>243036100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>258758300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>252104000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>253636500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>253941200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>247933600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>240153900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>235496000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>228014300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,8 +3909,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3851,150 +3981,159 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>279400</v>
+      </c>
+      <c r="E58" s="3">
         <v>79800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>74300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>82700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>84000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>84700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>76600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>76300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>105600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>93400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>96100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>76800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>43900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>42900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>36100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>64500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>78100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>39500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>58800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>42000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>59500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>51400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>218522100</v>
+      </c>
+      <c r="E59" s="3">
         <v>227029900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>222751400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>226757000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>221945000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>220270800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>204706300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>199248400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>179838200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>208008600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>202512800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>203727800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>198723000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>185601300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>201994800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>196987200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>198011900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>198294200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>193274400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>188508900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>185386500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>178689500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4064,150 +4203,159 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4280400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4280200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4279700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4279500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4279400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4279200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4279000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4163400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3670100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3765900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3797400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3795400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3302000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3259600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3245500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3219900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3196600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3178400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3175400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3126800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3126200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3125700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1373900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2320200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2345600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2324600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2065900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2330800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2106900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2061500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1450300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1796600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1928100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1687500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1318700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>958400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>911400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>887900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>909000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1092500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1515200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1281800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1048100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>972400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>279640900</v>
+      </c>
+      <c r="E66" s="3">
         <v>288587800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>282837700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>285932400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>280229100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>280068800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>262833900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>256066300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>233996400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>261469800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>255434200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>253883300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>246725500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>231646100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>247057500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>240464700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>241449600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>241091900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>235937200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>228985800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>224879900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>217787000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13090800</v>
+      </c>
+      <c r="E72" s="3">
         <v>12884500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12583900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12395000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12199200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>11838000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11521400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11441400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11198800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11074300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10927800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10805800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10571900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10290200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10207900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9904300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9598300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9482900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8784600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8112200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7937400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7720400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11897600</v>
+      </c>
+      <c r="E76" s="3">
         <v>16069400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16070700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16233100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15405500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16558900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15650900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15243100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12907500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14618000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14804200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14034700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12694400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11390000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11700800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11639300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12186900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12849300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11996400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11168100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10616100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10227300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>376200</v>
+      </c>
+      <c r="E81" s="3">
         <v>471800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>359900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>361800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>517100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>472600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>236000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>398300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>288900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>277100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>386300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>429900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>236500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>456300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>456600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>397100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>841800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>810200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>309500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>348900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>318000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,8 +5598,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5427,53 +5625,56 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>124600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>228200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>135500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>109900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>170400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>72800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>115600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>123600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>111700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>116200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>102000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>100400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>68100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E89" s="3">
         <v>1111800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>973400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>992800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>140800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>628200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1064300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>457000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1589100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1028400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1786400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1502000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1176400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1442600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2075700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>891700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>746500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>559300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1799600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1306200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>522900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>930500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-63100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-22900</v>
       </c>
       <c r="G91" s="3">
         <v>-22900</v>
       </c>
       <c r="H91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-25900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-28400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-31500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-29200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-60300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-43800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-45800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>126800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2790800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1924500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>76400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1019200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1385900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1418800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-912700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-852900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-979900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-735100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-813400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-673300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-656300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6468,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-167000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-168500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-168200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-165200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-152200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-153700</v>
       </c>
       <c r="I96" s="3">
         <v>-153700</v>
       </c>
       <c r="J96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-153500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-153600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-152400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-153000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-150400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-150200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-152100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-150700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-148500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-147300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-141500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-135800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-132700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-130000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-123800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,79 +6762,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>250900</v>
+      </c>
+      <c r="E100" s="3">
         <v>865600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1679100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-655300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>32100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>50800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>760800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>519100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>290400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1051800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>677900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>407100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-403100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-98000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>576200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>476200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>98300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-148400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-197600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-161200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>123200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>227200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6662,75 +6910,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>409200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-813400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>728000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>413900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-846300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-706900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>406300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-332300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>966800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-682100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-117900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1056200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-717800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>50800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>584700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-135100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-324200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>788600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>471700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>501400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,175 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3591400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3110000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4091100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3423700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3539400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3208500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3765100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3310700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3114600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4551300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4055500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4469500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3989900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3750700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3777200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4351700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3243900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2893500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3259900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4644400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3192500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3078200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3542800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -900,8 +906,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +983,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1166,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,50 +1201,53 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>8300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>11100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>22200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>16600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>14200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>28800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>29000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,20 +1278,20 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
-        <v>3800</v>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <v>3800</v>
       </c>
       <c r="O15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="P15" s="3">
         <v>3500</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>5</v>
+      <c r="Q15" s="3">
+        <v>3500</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>5</v>
@@ -1280,8 +1302,8 @@
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1298,8 +1320,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2761600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2682000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3482100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2995600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3106800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2594600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3173500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3035600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2616000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4223100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3684000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4123500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3539400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3224400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3534300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3782600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2728500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2436500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2945100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3486600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2826900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2664200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3161500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>829800</v>
+      </c>
+      <c r="E18" s="3">
         <v>428000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>609000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>428100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>432600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>613900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>591600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>275100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>498600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>328200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>371500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>346000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>450500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>526300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>242900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>569100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>515400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>457000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>314800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1157800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>365600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>414000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>381300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,13 +1531,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>3067300</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1573,8 +1606,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1605,50 +1641,53 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>496100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>574200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>586000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>636200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>413300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>641900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>631000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>580600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>426500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1274000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>467600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>514400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>449400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1679,21 +1718,21 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1703,8 +1742,8 @@
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1721,156 +1760,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3897100</v>
+      </c>
+      <c r="E23" s="3">
         <v>428000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>609000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>428100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>432600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>613900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>591600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>275100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>498600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>328200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>371300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>345700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>450300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>526000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>242900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>569100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>515400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>457000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>314800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1157800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>365600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>414000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>381300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>822500</v>
+      </c>
+      <c r="E24" s="3">
         <v>47300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>103800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>63800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>61000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>97600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>82500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>43200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>61100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>58200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>73900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>109100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>55900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>54500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>68600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>344600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>50800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>60400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>43100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3074600</v>
+      </c>
+      <c r="E26" s="3">
         <v>380700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>505200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>364300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>371600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>516300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>491500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>235900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>416100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>285000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>315300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>284600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>392100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>452100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>231700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>460000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>459500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>402500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>246200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>813200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>314800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>353600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>338200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3059400</v>
+      </c>
+      <c r="E27" s="3">
         <v>376200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>471800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>359900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>361800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>517100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>472600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>236000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>398300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>288900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>277100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>386300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>429900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>236500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>456300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>456600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>397100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>245100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>810200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>309500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>348900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>318000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2203,8 +2263,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2221,12 +2281,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>596700</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2239,8 +2299,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,13 +2453,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-3067300</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2461,82 +2530,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3059400</v>
+      </c>
+      <c r="E33" s="3">
         <v>376200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>471800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>359900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>361800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>517100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>472600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>236000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>398300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>288900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>277100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>386300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>429900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>236500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>456300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>456600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>397100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>841800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>810200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>309500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>348900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>318000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3059400</v>
+      </c>
+      <c r="E35" s="3">
         <v>376200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>471800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>359900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>361800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>517100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>472600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>236000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>398300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>288900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>277100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>386300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>429900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>236500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>456300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>456600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>397100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>841800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>810200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>309500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>348900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>318000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,82 +2903,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3173100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2741200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2332000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3145400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2417400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2003500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2849800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3556700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3150400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3482700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2515900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3198000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3315900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2259700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2977500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2926700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2342000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2335700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2470800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2795000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2006400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1534700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2719600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2966,82 +3055,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4683900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2374400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1842400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1713200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1675700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1708300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1723800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1530200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1760000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1691000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1740300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1635700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1549200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1641100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1413100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1514400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1455600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1638400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1469800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1516600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1381400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1447000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1361900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3114,8 +3209,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3188,8 +3286,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3262,230 +3363,242 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>95768100</v>
+      </c>
+      <c r="E47" s="3">
         <v>101043300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>106830500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>104928800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>104033300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>102928500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>104509600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>101252000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>98858900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>94157700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>96056700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>94038200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>90903700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>88324000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>84766600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>84007200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>82404800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>81952800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>82102700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>81203400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>79050500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>77812000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>75835500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3066900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3159800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3113400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3031000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2972400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2877100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2816300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2780600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2692800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>973800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>967700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>961700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>959500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>933200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>767300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>770600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>762900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>775200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>759500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>754600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>750300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>718800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>699000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3134500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3262300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3228200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3277800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3377100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3399300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3434000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3358800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3340200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3333000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3480500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3492400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2412200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2420900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2415100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2482600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2458600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2489100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2383500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2369900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2344600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2355500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2346100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,8 +3748,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3706,8 +3825,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>293220200</v>
+      </c>
+      <c r="E54" s="3">
         <v>291538500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>304657200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>298908400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>302165500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>295634600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>296627700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>278484800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>271309400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>246903900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>276087800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>270238400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>267918000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>259419900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>243036100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>258758300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>252104000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>253636500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>253941200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>247933600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>240153900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>235496000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>228014300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,8 +4039,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3984,156 +4114,165 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E58" s="3">
         <v>279400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>79800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>74300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>82700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>84000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>84700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>76600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>76300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>105600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>93400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>96100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>76800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>43900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>42900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>36100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>64500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>78100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>39500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>58800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>42000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>59500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>51400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>221191300</v>
+      </c>
+      <c r="E59" s="3">
         <v>218522100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>227029900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>222751400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>226757000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>221945000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>220270800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>204706300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>199248400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>179838200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>208008600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>202512800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>203727800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>198723000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>185601300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>201994800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>196987200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>198011900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>198294200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>193274400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>188508900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>185386500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>178689500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4206,156 +4345,165 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4280700</v>
+      </c>
+      <c r="E61" s="3">
         <v>4280400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4280200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4279700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4279500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4279400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4279200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4279000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4163400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3670100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3765900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3797400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3795400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3302000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3259600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3245500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3219900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3196600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3178400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3175400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3126800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3126200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3125700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1421800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1373900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2320200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2345600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2324600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2065900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2330800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2106900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2061500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1450300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1796600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1928100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1687500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1318700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>958400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>911400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>887900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>909000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1092500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1515200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1281800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1048100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>972400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>282183400</v>
+      </c>
+      <c r="E66" s="3">
         <v>279640900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>288587800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>282837700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>285932400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>280229100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>280068800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>262833900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>256066300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>233996400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>261469800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>255434200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>253883300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>246725500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>231646100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>247057500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>240464700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>241449600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>241091900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>235937200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>228985800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>224879900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>217787000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15985600</v>
+      </c>
+      <c r="E72" s="3">
         <v>13090800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>12884500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12583900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12395000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12199200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>11838000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11521400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11441400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11198800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11074300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10927800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10805800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10571900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10290200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10207900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9904300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9598300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9482900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8784600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8112200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7937400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7720400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11036800</v>
+      </c>
+      <c r="E76" s="3">
         <v>11897600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>16069400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16070700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16233100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15405500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16558900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15650900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15243100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12907500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14618000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14804200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14034700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12694400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11390000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11700800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11639300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12186900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12849300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11996400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11168100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10616100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10227300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3059400</v>
+      </c>
+      <c r="E81" s="3">
         <v>376200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>471800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>359900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>361800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>517100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>472600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>236000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>398300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>288900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>277100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>386300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>429900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>236500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>456300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>456600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>397100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>841800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>810200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>309500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>348900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>318000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,8 +5796,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5628,53 +5826,56 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>124600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>228200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>135500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>109900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>170400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>72800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>115600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>123600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>111700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>116200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>102000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>100400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>68100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>807200</v>
+      </c>
+      <c r="E89" s="3">
         <v>31500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1111800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>973400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>992800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>140800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>628200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1064300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>457000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1589100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1028400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1786400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1502000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1176400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1442600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2075700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>891700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>746500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>559300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1799600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1306200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>522900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>930500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,82 +6364,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-63100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-22900</v>
       </c>
       <c r="H91" s="3">
         <v>-22900</v>
       </c>
       <c r="I91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-25900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-28400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-31500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-29200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-60300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-43800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-45800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-224700</v>
+      </c>
+      <c r="E94" s="3">
         <v>126800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2790800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1924500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>76400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1019200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1385900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1418800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-912700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-852900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-979900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-735100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-813400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-673300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-656300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,82 +6701,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-161700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-167000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-168500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-168200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-165200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-152200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-153700</v>
       </c>
       <c r="J96" s="3">
         <v>-153700</v>
       </c>
       <c r="K96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="L96" s="3">
         <v>-153500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-153600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-152400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-153000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-150400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-150200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-152100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-150700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-148500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-147300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-141500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-135800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-132700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-130000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-123800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,82 +7007,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-150600</v>
+      </c>
+      <c r="E100" s="3">
         <v>250900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>865600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1679100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-655300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>32100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>50800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>760800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>519100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>290400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1051800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>677900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>407100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-403100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-98000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>576200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>476200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>98300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-148400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-197600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-161200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>123200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>227200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6913,78 +7161,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>431900</v>
+      </c>
+      <c r="E102" s="3">
         <v>409200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-813400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>728000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>413900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-846300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-706900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>406300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-332300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>966800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-682100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-117900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1056200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-717800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>50800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>584700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-135100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-324200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>788600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>471700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>501400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,181 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3363200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3591400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3110000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4091100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3423700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3539400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3208500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3765100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3310700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3114600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4551300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4055500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4469500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3989900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3750700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3777200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4351700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3243900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2893500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3259900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4644400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3192500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3078200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3542800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,8 +915,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +995,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1185,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1204,50 +1223,53 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>8300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>17300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>22200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>16600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>14200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>28800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>29000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1281,20 +1303,20 @@
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3">
-        <v>3800</v>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>3800</v>
       </c>
       <c r="P15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="Q15" s="3">
         <v>3500</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
+      <c r="R15" s="3">
+        <v>3500</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>5</v>
@@ -1305,8 +1327,8 @@
       <c r="U15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1323,8 +1345,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2870800</v>
+      </c>
+      <c r="E17" s="3">
         <v>2761600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2682000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3482100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2995600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3106800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2594600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3173500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3035600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2616000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4223100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3684000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4123500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3539400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3224400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3534300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3782600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2728500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2436500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2945100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3486600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2826900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2664200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3161500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>492400</v>
+      </c>
+      <c r="E18" s="3">
         <v>829800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>428000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>609000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>428100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>432600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>613900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>591600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>275100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>498600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>328200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>371500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>346000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>450500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>526300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>242900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>569100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>515400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>457000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>314800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1157800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>365600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>414000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>381300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,17 +1564,18 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1237700</v>
+      </c>
+      <c r="E20" s="3">
         <v>3067300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1609,8 +1642,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1644,50 +1680,53 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>496100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>574200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>586000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>636200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>413300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>641900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>631000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>580600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>426500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1274000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>467600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>514400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>449400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,21 +1760,21 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1784,8 @@
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1763,162 +1802,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1730100</v>
+      </c>
+      <c r="E23" s="3">
         <v>3897100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>428000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>609000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>428100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>432600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>613900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>591600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>275100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>498600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>328200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>371300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>345700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>450300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>526000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>242900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>569100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>515400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>457000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>314800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1157800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>365600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>414000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>381300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>348700</v>
+      </c>
+      <c r="E24" s="3">
         <v>822500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>47300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>103800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>63800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>61000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>97600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>82500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>43200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>56000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>61100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>58200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>73900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>109100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>55900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>54500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>68600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>344600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>50800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>60400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>43100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1381400</v>
+      </c>
+      <c r="E26" s="3">
         <v>3074600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>380700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>505200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>364300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>371600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>516300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>491500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>235900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>416100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>285000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>315300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>284600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>392100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>452100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>231700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>460000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>459500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>402500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>246200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>813200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>314800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>353600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>338200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1385500</v>
+      </c>
+      <c r="E27" s="3">
         <v>3059400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>376200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>471800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>359900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>361800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>517100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>472600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>236000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>398300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>288900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>277100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>386300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>429900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>236500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>456300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>456600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>397100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>245100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>810200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>309500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>348900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>318000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2266,8 +2326,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2284,12 +2344,12 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>596700</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2302,8 +2362,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,17 +2522,20 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1237700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3067300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2533,85 +2602,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1385500</v>
+      </c>
+      <c r="E33" s="3">
         <v>3059400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>376200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>471800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>359900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>361800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>517100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>472600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>236000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>398300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>288900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>277100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>386300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>429900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>236500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>456300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>456600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>397100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>841800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>810200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>309500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>348900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>318000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1385500</v>
+      </c>
+      <c r="E35" s="3">
         <v>3059400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>376200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>471800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>359900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>361800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>517100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>472600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>236000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>398300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>288900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>277100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>386300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>429900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>236500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>456300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>456600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>397100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>841800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>810200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>309500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>348900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>318000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,85 +2989,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4239600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3173100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2741200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2332000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3145400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2417400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2003500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2849800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3556700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3150400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3482700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2515900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3198000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3315900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2259700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2977500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2926700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2342000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2335700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2470800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2795000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2006400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1534700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2719600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3058,85 +3147,91 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4336600</v>
+      </c>
+      <c r="E43" s="3">
         <v>4683900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2374400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1842400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1713200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1675700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1708300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1723800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1530200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1760000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1691000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1740300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1635700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1549200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1641100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1413100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1514400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1455600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1638400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1469800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1516600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1381400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1447000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1361900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3212,8 +3307,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,8 +3387,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3366,239 +3467,251 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>91706600</v>
+      </c>
+      <c r="E47" s="3">
         <v>95768100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>101043300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>106830500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>104928800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>104033300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>102928500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>104509600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>101252000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>98858900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>94157700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>96056700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>94038200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>90903700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>88324000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>84766600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>84007200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>82404800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>81952800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>82102700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>81203400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>79050500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>77812000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>75835500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3142900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3066900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3159800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3113400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3031000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2972400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2877100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2816300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2780600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2692800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>973800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>967700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>961700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>959500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>933200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>767300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>770600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>762900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>775200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>759500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>754600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>750300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>718800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>699000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3072900</v>
+      </c>
+      <c r="E49" s="3">
         <v>3134500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3262300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3228200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3277800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3377100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3399300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3434000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3358800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3340200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3333000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3480500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3492400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2412200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2420900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2415100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2482600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2458600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2489100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2383500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2369900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2344600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2355500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2346100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,8 +3867,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3828,8 +3947,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>282580600</v>
+      </c>
+      <c r="E54" s="3">
         <v>293220200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>291538500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>304657200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>298908400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>302165500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>295634600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>296627700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>278484800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>271309400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>246903900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>276087800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>270238400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>267918000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>259419900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>243036100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>258758300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>252104000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>253636500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>253941200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>247933600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>240153900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>235496000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>228014300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,8 +4169,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4117,162 +4247,171 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E58" s="3">
         <v>66900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>279400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>79800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>74300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>82700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>84000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>84700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>76600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>76300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>105600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>93400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>96100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>76800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>43900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>42900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>36100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>64500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>78100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>39500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>58800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>42000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>59500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>51400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>211885500</v>
+      </c>
+      <c r="E59" s="3">
         <v>221191300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>218522100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>227029900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>222751400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>226757000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>221945000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>220270800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>204706300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>199248400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>179838200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>208008600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>202512800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>203727800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>198723000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>185601300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>201994800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>196987200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>198011900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>198294200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>193274400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>188508900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>185386500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>178689500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4348,162 +4487,171 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3981000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4280700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4280400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4280200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4279700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4279500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4279400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4279200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4279000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4163400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3670100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3765900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3797400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3795400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3302000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3259600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3245500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3219900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3196600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3178400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3175400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3126800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3126200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3125700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1079300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1421800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1373900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2320200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2345600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2324600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2065900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2330800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2106900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2061500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1450300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1796600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1928100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1687500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1318700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>958400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>911400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>887900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>909000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1092500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1515200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1281800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1048100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>972400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>273134400</v>
+      </c>
+      <c r="E66" s="3">
         <v>282183400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>279640900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>288587800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>282837700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>285932400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>280229100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>280068800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>262833900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>256066300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>233996400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>261469800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>255434200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>253883300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>246725500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>231646100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>247057500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>240464700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>241449600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>241091900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>235937200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>228985800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>224879900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>217787000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17210900</v>
+      </c>
+      <c r="E72" s="3">
         <v>15985600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13090800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>12884500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12583900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12395000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12199200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11838000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11521400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11441400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11198800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11074300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10927800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10805800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10571900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10290200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10207900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9904300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9598300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9482900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8784600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8112200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7937400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7720400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9446200</v>
+      </c>
+      <c r="E76" s="3">
         <v>11036800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11897600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>16069400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16070700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16233100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15405500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16558900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15650900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15243100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12907500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14618000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14804200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14034700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12694400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11390000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11700800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11639300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12186900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12849300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11996400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11168100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10616100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10227300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1385500</v>
+      </c>
+      <c r="E81" s="3">
         <v>3059400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>376200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>471800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>359900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>361800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>517100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>472600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>236000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>398300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>288900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>277100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>386300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>429900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>236500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>456300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>456600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>397100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>841800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>810200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>309500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>348900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>318000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,8 +5994,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5829,53 +6027,56 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>124600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>228200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>135500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>109900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>170400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>72800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>115600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>123600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>111700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>116200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>102000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>100400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>68100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1171000</v>
+      </c>
+      <c r="E89" s="3">
         <v>807200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1111800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>973400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>992800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>140800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>628200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1064300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>457000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1589100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1028400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1786400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1502000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1176400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1442600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2075700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>891700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>746500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>559300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1799600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1306200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>522900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>930500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-34600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-22900</v>
       </c>
       <c r="I91" s="3">
         <v>-22900</v>
       </c>
       <c r="J91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-25900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-36500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-28400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-36000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-29800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-31500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-29200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-60300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-43800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-45800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>587900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-224700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>126800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2790800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1924500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>76400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1019200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1385900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1418800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-912700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-852900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-979900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-735100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-813400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-673300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-656300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +6934,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-157400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-161700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-167000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-168500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-168200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-165200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-152200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-153700</v>
       </c>
       <c r="K96" s="3">
         <v>-153700</v>
       </c>
       <c r="L96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="M96" s="3">
         <v>-153500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-153600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-152400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-153000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-150400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-150200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-152100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-150700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-148500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-147300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-141500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-135800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-132700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-130000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-123800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,85 +7252,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-692400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-150600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>250900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>865600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1679100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-655300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>32100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>50800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>760800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>519100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>290400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1051800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>677900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>407100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-403100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-98000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>576200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>476200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>98300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-148400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-197600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-161200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>123200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>227200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7164,81 +7412,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1066500</v>
+      </c>
+      <c r="E102" s="3">
         <v>431900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>409200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-813400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>728000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>413900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-846300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-706900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>406300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-332300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>966800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-682100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-117900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1056200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-717800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>50800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>584700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-135100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-324200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>788600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>471700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>501400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,187 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3774200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3363200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3591400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3110000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4091100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3423700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3539400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3208500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3765100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3310700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3114600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4551300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4055500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4469500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3989900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3750700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3777200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4351700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3243900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2893500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3259900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4644400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3192500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3078200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3542800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -918,8 +924,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,8 +1007,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1040,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1121,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1204,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1226,50 +1245,53 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>8300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>22200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>16600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>14200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>28800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>29000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1306,20 +1328,20 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
-        <v>3800</v>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <v>3800</v>
       </c>
       <c r="Q15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="R15" s="3">
         <v>3500</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
+      <c r="S15" s="3">
+        <v>3500</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>5</v>
@@ -1330,8 +1352,8 @@
       <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1348,8 +1370,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1400,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3117100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2870800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2761600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2682000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3482100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2995600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3106800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2594600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3173500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3035600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2616000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4223100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3684000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4123500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3539400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3224400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3534300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3782600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2728500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2436500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2945100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3486600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2826900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2664200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3161500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>657100</v>
+      </c>
+      <c r="E18" s="3">
         <v>492400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>829800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>428000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>609000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>428100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>432600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>613900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>591600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>275100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>498600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>328200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>371500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>346000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>450500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>526300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>242900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>569100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>515400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>457000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>314800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1157800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>365600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>414000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>381300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,20 +1597,21 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-652200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1237700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3067300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1645,8 +1678,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1683,50 +1719,53 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>496100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>574200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>586000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>636200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>413300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>641900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>631000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>580600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>426500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1274000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>467600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>514400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>449400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1763,21 +1802,21 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1787,8 +1826,8 @@
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1805,168 +1844,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1730100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3897100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>428000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>609000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>428100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>432600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>613900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>591600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>275100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>498600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>328200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>371300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>345700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>450300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>526000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>242900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>569100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>515400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>457000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>314800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1157800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>365600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>414000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>381300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E24" s="3">
         <v>348700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>822500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>47300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>103800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>63800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>61000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>97600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>82500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>43200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>56000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>61100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>58200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>73900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>109100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>55900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>54500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>68600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>344600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>50800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>60400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>43100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2093,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1381400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3074600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>380700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>505200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>364300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>371600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>516300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>491500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>235900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>416100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>285000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>315300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>284600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>392100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>452100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>231700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>460000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>459500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>402500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>246200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>813200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>314800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>353600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>338200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1385500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3059400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>376200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>471800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>359900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>361800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>517100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>472600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>236000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>398300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>288900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>277100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>386300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>429900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>236500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>456300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>456600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>397100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>245100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>810200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>309500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>348900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>318000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2342,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2389,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2347,12 +2407,12 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>596700</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2365,8 +2425,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2508,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,20 +2591,23 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>652200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1237700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3067300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2605,88 +2674,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1385500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3059400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>376200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>471800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>359900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>361800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>517100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>472600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>236000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>398300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>288900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>277100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>386300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>429900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>236500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>456300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>456600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>397100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>841800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>810200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>309500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>348900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>318000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2840,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1385500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3059400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>376200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>471800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>359900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>361800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>517100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>472600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>236000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>398300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>288900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>277100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>386300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>429900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>236500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>456300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>456600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>397100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>841800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>810200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>309500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>348900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>318000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3044,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,88 +3075,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4848000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4239600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3173100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2741200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2332000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3145400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2417400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2003500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2849800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3556700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3150400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3482700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2515900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3198000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3315900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2259700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2977500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2926700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2342000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2335700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2470800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2795000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2006400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1534700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2719600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3150,88 +3239,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4283300</v>
+      </c>
+      <c r="E43" s="3">
         <v>4336600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4683900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2374400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1842400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1713200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1675700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1708300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1723800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1530200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1760000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1691000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1740300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1635700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1549200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1641100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1413100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1514400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1455600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1638400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1469800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1516600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1381400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1447000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1361900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3310,8 +3405,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3390,8 +3488,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3470,248 +3571,260 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>92849600</v>
+      </c>
+      <c r="E47" s="3">
         <v>91706600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>95768100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>101043300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>106830500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>104928800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>104033300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>102928500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>104509600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>101252000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>98858900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>94157700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>96056700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>94038200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>90903700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>88324000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>84766600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>84007200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>82404800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>81952800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>82102700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>81203400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>79050500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>77812000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>75835500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3235800</v>
+      </c>
+      <c r="E48" s="3">
         <v>3142900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3066900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3159800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3113400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3031000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2972400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2877100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2816300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2780600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2692800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>973800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>967700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>961700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>959500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>933200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>767300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>770600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>762900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>775200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>759500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>754600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>750300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>718800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>699000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3131500</v>
+      </c>
+      <c r="E49" s="3">
         <v>3072900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3134500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3262300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3228200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3277800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3377100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3399300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3434000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3358800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3340200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3333000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3480500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3492400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2412200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2420900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2415100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2482600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2458600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2489100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2383500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2369900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2344600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2355500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2346100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3903,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,8 +3986,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3950,8 +4069,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4152,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>292239600</v>
+      </c>
+      <c r="E54" s="3">
         <v>282580600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>293220200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>291538500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>304657200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>298908400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>302165500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>295634600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>296627700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>278484800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>271309400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>246903900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>276087800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>270238400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>267918000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>259419900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>243036100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>258758300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>252104000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>253636500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>253941200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>247933600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>240153900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>235496000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>228014300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4268,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,8 +4299,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4250,168 +4380,177 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>80700</v>
+      </c>
+      <c r="E58" s="3">
         <v>66500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>66900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>279400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>79800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>74300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>82700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>84000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>84700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>76600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>76300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>105600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>93400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>96100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>76800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>43900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>42900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>36100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>64500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>78100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>39500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>58800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>42000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>59500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>51400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>219618200</v>
+      </c>
+      <c r="E59" s="3">
         <v>211885500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>221191300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>218522100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>227029900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>222751400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>226757000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>221945000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>220270800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>204706300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>199248400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>179838200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>208008600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>202512800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>203727800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>198723000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>185601300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>201994800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>196987200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>198011900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>198294200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>193274400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>188508900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>185386500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>178689500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4490,168 +4629,177 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3997000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3981000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4280700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4280400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4280200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4279700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4279500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4279400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4279200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4279000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4163400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3670100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3765900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3797400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3795400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3302000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3259600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3245500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3219900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3196600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3178400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3175400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3126800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3126200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3125700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1206800</v>
+      </c>
+      <c r="E62" s="3">
         <v>1079300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1421800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1373900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2320200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2345600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2324600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2065900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2330800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2106900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2061500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1450300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1796600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1928100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1687500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1318700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>958400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>911400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>887900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>909000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1092500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1515200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1281800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1048100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>972400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4878,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +4961,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5044,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>282237900</v>
+      </c>
+      <c r="E66" s="3">
         <v>273134400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>282183400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>279640900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>288587800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>282837700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>285932400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>280229100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>280068800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>262833900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>256066300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>233996400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>261469800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>255434200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>253883300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>246725500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>231646100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>247057500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>240464700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>241449600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>241091900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>235937200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>228985800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>224879900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>217787000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5160,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5241,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5324,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5407,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5490,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17042300</v>
+      </c>
+      <c r="E72" s="3">
         <v>17210900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15985600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13090800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>12884500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12583900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12395000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12199200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11838000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11521400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11441400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11198800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11074300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10927800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10805800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10571900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10290200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10207900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9904300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9598300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9482900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8784600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8112200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7937400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7720400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5656,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5739,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5822,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10001700</v>
+      </c>
+      <c r="E76" s="3">
         <v>9446200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11036800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11897600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>16069400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16070700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16233100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15405500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16558900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15650900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15243100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12907500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14618000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14804200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14034700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12694400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11390000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11700800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11639300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12186900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12849300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11996400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11168100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10616100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10227300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5988,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1385500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3059400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>376200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>471800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>359900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>361800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>517100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>472600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>236000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>398300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>288900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>277100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>386300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>429900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>236500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>456300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>456600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>397100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>841800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>810200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>309500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>348900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>318000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,8 +6192,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6030,53 +6228,56 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>124600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>228200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>135500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>109900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>170400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>72800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>115600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>123600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>111700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>116200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>102000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>100400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>68100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6356,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6439,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6522,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6605,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6688,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1163200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1171000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>807200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1111800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>973400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>992800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>140800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>628200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1064300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>457000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1589100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1028400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1786400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1502000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1176400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1442600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2075700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>891700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>746500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>559300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1799600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1306200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>522900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>930500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,88 +6804,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-34600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-22900</v>
       </c>
       <c r="J91" s="3">
         <v>-22900</v>
       </c>
       <c r="K91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="L91" s="3">
         <v>-25900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-36500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-28400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-36000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-18900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-29800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-26000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-31500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-29200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-60300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-43800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-45800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6968,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7051,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>568500</v>
+      </c>
+      <c r="E94" s="3">
         <v>587900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-224700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>126800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2790800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1924500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>76400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1019200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1385900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1418800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-912700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-852900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-979900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-735100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-813400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-673300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-656300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,88 +7167,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-157400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-161700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-167000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-168500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-168200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-165200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-152200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-153700</v>
       </c>
       <c r="L96" s="3">
         <v>-153700</v>
       </c>
       <c r="M96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="N96" s="3">
         <v>-153500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-153600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-152400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-153000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-150400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-150200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-152100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-150700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-148500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-147300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-141500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-135800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-132700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-130000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-123800</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7331,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7414,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,88 +7497,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1123300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-692400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-150600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>250900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>865600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1679100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-655300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>32100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>50800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>760800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>519100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>290400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1051800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>677900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>407100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-403100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-98000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>576200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>476200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>98300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-148400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-197600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-161200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>123200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>227200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7415,84 +7663,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>608400</v>
+      </c>
+      <c r="E102" s="3">
         <v>1066500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>431900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>409200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-813400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>728000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>413900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-846300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-706900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>406300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-332300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>966800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-682100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-117900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1056200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-717800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>50800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>584700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-135100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-324200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>788600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>471700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>501400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,187 +665,193 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3448500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3774200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3363200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3591400</v>
       </c>
-      <c r="G8" s="3">
-        <v>3110000</v>
-      </c>
       <c r="H8" s="3">
+        <v>3086600</v>
+      </c>
+      <c r="I8" s="3">
         <v>4091100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3423700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3539400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3208500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3765100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3310700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3114600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4551300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4055500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4469500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3989900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3750700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3777200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4351700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3243900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2893500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3259900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4644400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3192500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3078200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3542800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,8 +933,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,8 +1019,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1053,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1137,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,31 +1223,34 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1248,73 +1267,76 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>8300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>22200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>16600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>14200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>28800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>29000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
@@ -1331,20 +1353,20 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3">
-        <v>3800</v>
+      <c r="P15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q15" s="3">
         <v>3800</v>
       </c>
       <c r="R15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="S15" s="3">
         <v>3500</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
+      <c r="T15" s="3">
+        <v>3500</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>5</v>
@@ -1355,8 +1377,8 @@
       <c r="W15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1373,8 +1395,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1426,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3034400</v>
+      </c>
+      <c r="E17" s="3">
         <v>3117100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2870800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2761600</v>
       </c>
-      <c r="G17" s="3">
-        <v>2682000</v>
-      </c>
       <c r="H17" s="3">
+        <v>2708200</v>
+      </c>
+      <c r="I17" s="3">
         <v>3482100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2995600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3106800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2594600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3173500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3035600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2616000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4223100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3684000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4123500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3539400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3224400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3534300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3782600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2728500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2436500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2945100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3486600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2826900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2664200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3161500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>414100</v>
+      </c>
+      <c r="E18" s="3">
         <v>657100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>492400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>829800</v>
       </c>
-      <c r="G18" s="3">
-        <v>428000</v>
-      </c>
       <c r="H18" s="3">
+        <v>378400</v>
+      </c>
+      <c r="I18" s="3">
         <v>609000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>428100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>432600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>613900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>591600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>275100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>498600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>328200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>371500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>346000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>450500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>526300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>242900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>569100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>515400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>457000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>314800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1157800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>365600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>414000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>381300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,23 +1630,24 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-626600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-652200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1237700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3067300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1681,8 +1714,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1722,73 +1758,76 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>496100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>574200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>586000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>636200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>413300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>641900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>631000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>580600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>426500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1274000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>467600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>514400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>449400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>5</v>
@@ -1805,21 +1844,21 @@
       <c r="O22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1829,8 +1868,8 @@
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1847,174 +1886,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-212500</v>
+      </c>
+      <c r="E23" s="3">
         <v>4900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1730100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3897100</v>
       </c>
-      <c r="G23" s="3">
-        <v>428000</v>
-      </c>
       <c r="H23" s="3">
+        <v>378400</v>
+      </c>
+      <c r="I23" s="3">
         <v>609000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>428100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>432600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>613900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>591600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>275100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>498600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>328200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>371300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>345700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>450300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>526000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>242900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>569100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>515400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>457000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>314800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1157800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>365600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>414000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>381300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-78000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-10600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>348700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>822500</v>
       </c>
-      <c r="G24" s="3">
-        <v>47300</v>
-      </c>
       <c r="H24" s="3">
+        <v>35200</v>
+      </c>
+      <c r="I24" s="3">
         <v>103800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>63800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>61000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>97600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>82500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>43200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>56000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>61100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>58200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>73900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>109100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>55900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>54500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>68600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>344600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>50800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>60400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>43100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2144,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-134500</v>
+      </c>
+      <c r="E26" s="3">
         <v>15500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1381400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3074600</v>
       </c>
-      <c r="G26" s="3">
-        <v>380700</v>
-      </c>
       <c r="H26" s="3">
+        <v>343200</v>
+      </c>
+      <c r="I26" s="3">
         <v>505200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>364300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>371600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>516300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>491500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>235900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>416100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>285000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>315300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>284600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>392100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>452100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>231700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>460000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>459500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>402500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>246200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>813200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>314800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>353600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>338200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-140100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1385500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3059400</v>
       </c>
-      <c r="G27" s="3">
-        <v>376200</v>
-      </c>
       <c r="H27" s="3">
+        <v>338700</v>
+      </c>
+      <c r="I27" s="3">
         <v>471800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>359900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>361800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>517100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>472600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>236000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>398300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>288900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>277100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>386300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>429900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>236500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>456300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>456600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>397100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>245100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>810200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>309500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>348900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>318000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,8 +2402,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2392,8 +2452,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2410,12 +2470,12 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>596700</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2428,8 +2488,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2574,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,23 +2660,26 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>626600</v>
+      </c>
+      <c r="E32" s="3">
         <v>652200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1237700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3067300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2677,91 +2746,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-140100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1385500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3059400</v>
       </c>
-      <c r="G33" s="3">
-        <v>376200</v>
-      </c>
       <c r="H33" s="3">
+        <v>338700</v>
+      </c>
+      <c r="I33" s="3">
         <v>471800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>359900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>361800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>517100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>472600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>236000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>398300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>288900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>277100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>386300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>429900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>236500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>456300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>456600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>397100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>841800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>810200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>309500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>348900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>318000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2918,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-140100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1385500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3059400</v>
       </c>
-      <c r="G35" s="3">
-        <v>376200</v>
-      </c>
       <c r="H35" s="3">
+        <v>338700</v>
+      </c>
+      <c r="I35" s="3">
         <v>471800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>359900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>361800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>517100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>472600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>236000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>398300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>288900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>277100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>386300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>429900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>236500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>456300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>456600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>397100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>841800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>810200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>309500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>348900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>318000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3129,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,91 +3161,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4640900</v>
+      </c>
+      <c r="E41" s="3">
         <v>4848000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4239600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3173100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2741200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2332000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3145400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2417400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2003500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2849800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3556700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3150400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3482700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2515900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3198000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3315900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2259700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2977500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2926700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2342000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2335700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2470800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2795000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2006400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1534700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2719600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3242,91 +3331,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4283300</v>
+        <v>3837600</v>
       </c>
       <c r="E43" s="3">
+        <v>3933300</v>
+      </c>
+      <c r="F43" s="3">
         <v>4336600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4683900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2374400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1842400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1713200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1675700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1708300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1723800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1530200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1760000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1691000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1740300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1635700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1549200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1641100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1413100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1514400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1455600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1638400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1469800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1516600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1381400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1447000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1361900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3408,8 +3503,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3491,8 +3589,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3574,257 +3675,269 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>92849600</v>
+        <v>95838400</v>
       </c>
       <c r="E47" s="3">
+        <v>93004900</v>
+      </c>
+      <c r="F47" s="3">
         <v>91706600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>95768100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>101043300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>106830500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>104928800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>104033300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>102928500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>104509600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>101252000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>98858900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>94157700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>96056700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>94038200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>90903700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>88324000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>84766600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>84007200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>82404800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>81952800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>82102700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>81203400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>79050500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>77812000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>75835500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3286300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3235800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3142900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3066900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3159800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3113400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3031000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2972400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2877100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2816300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2780600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2692800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>973800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>967700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>961700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>959500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>933200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>767300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>770600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>762900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>775200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>759500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>754600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>750300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>718800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>699000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3171600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3131500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3072900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3134500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3262300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3228200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3277800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3377100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3399300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3434000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3358800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3340200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3333000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3480500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3492400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2412200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2420900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2415100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2482600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2458600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2489100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2383500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2369900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2344600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2355500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2346100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4019,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,8 +4105,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4072,8 +4191,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4277,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>292239600</v>
+        <v>299408200</v>
       </c>
       <c r="E54" s="3">
+        <v>290578300</v>
+      </c>
+      <c r="F54" s="3">
         <v>282580600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>293220200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>291538500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>304657200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>298908400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>302165500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>295634600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>296627700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>278484800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>271309400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>246903900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>276087800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>270238400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>267918000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>259419900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>243036100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>258758300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>252104000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>253636500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>253941200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>247933600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>240153900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>235496000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>228014300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4397,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,8 +4429,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4383,174 +4513,183 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E58" s="3">
         <v>80700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>66500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>66900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>279400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>79800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>74300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>82700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>84000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>84700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>76600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>76300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>105600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>93400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>96100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>76800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>43900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>42900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>36100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>64500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>78100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>39500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>58800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>42000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>59500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>51400</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>219618200</v>
+        <v>226633100</v>
       </c>
       <c r="E59" s="3">
+        <v>219774600</v>
+      </c>
+      <c r="F59" s="3">
         <v>211885500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>221191300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>218522100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>227029900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>222751400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>226757000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>221945000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>220270800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>204706300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>199248400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>179838200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>208008600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>202512800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>203727800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>198723000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>185601300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>201994800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>196987200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>198011900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>198294200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>193274400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>188508900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>185386500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>178689500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4632,174 +4771,183 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4688600</v>
+      </c>
+      <c r="E61" s="3">
         <v>3997000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3981000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4280700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4280400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4280200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4279700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4279500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4279400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4279200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4279000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4163400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3670100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3765900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3797400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3795400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3302000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3259600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3245500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3219900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3196600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3178400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3175400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3126800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3126200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3125700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1206800</v>
+        <v>1417100</v>
       </c>
       <c r="E62" s="3">
+        <v>1324200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1079300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1421800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1373900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2320200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2345600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2324600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2065900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2330800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2106900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2061500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1450300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1796600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1928100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1687500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1318700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>958400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>911400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>887900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>909000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1092500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1515200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1281800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1048100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>972400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5029,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5115,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5201,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>282237900</v>
+        <v>289190300</v>
       </c>
       <c r="E66" s="3">
+        <v>280601600</v>
+      </c>
+      <c r="F66" s="3">
         <v>273134400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>282183400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>279640900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>288587800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>282837700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>285932400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>280229100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>280068800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>262833900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>256066300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>233996400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>261469800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>255434200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>253883300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>246725500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>231646100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>247057500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>240464700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>241449600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>241091900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>235937200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>228985800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>224879900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>217787000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5321,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5405,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5491,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5577,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5663,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17042300</v>
+        <v>16398800</v>
       </c>
       <c r="E72" s="3">
+        <v>16697300</v>
+      </c>
+      <c r="F72" s="3">
         <v>17210900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15985600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13090800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12884500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12583900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12395000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12199200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11838000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11521400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11441400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11198800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11074300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10927800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10805800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10571900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10290200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10207900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9904300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9598300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9482900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>8784600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8112200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7937400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7720400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5835,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5921,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6007,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10001700</v>
+        <v>10217900</v>
       </c>
       <c r="E76" s="3">
+        <v>9976700</v>
+      </c>
+      <c r="F76" s="3">
         <v>9446200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11036800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11897600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>16069400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16070700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16233100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15405500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16558900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15650900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15243100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12907500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14618000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14804200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14034700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12694400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11390000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11700800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11639300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12186900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12849300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11996400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11168100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10616100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10227300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6179,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-140100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1385500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3059400</v>
       </c>
-      <c r="G81" s="3">
-        <v>376200</v>
-      </c>
       <c r="H81" s="3">
+        <v>338700</v>
+      </c>
+      <c r="I81" s="3">
         <v>471800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>359900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>361800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>517100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>472600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>236000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>398300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>288900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>277100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>386300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>429900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>236500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>456300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>456600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>397100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>841800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>810200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>309500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>348900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>318000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,8 +6390,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6231,53 +6429,56 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>124600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>228200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>135500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>109900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>170400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>72800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>115600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>123600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>111700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>116200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>102000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>100400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>68100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6560,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6646,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6732,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6818,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6904,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>695300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1163200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1171000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>807200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1111800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>973400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>992800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>140800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>628200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1064300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>457000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1589100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1028400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1786400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1502000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1176400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1442600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2075700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>891700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>746500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>559300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1799600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1306200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>522900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>930500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7024,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-34600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-22900</v>
       </c>
       <c r="K91" s="3">
         <v>-22900</v>
       </c>
       <c r="L91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="M91" s="3">
         <v>-25900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-36500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-28400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-36000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-29400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-18900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-29800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-26000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-29200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-60300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-43800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-45800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7194,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7280,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1104100</v>
+      </c>
+      <c r="E94" s="3">
         <v>568500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>587900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-224700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>126800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2790800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1924500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>76400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1019200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1385900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1418800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-912700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-852900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-979900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-735100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-813400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-673300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-656300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,91 +7400,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-156200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-157400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-161700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-167000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-168500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-168200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-165200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-152200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-153700</v>
       </c>
       <c r="M96" s="3">
         <v>-153700</v>
       </c>
       <c r="N96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="O96" s="3">
         <v>-153500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-153600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-152400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-153000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-150400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-150200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-152100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-150700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-148500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-147300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-141500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-135800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-132700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-130000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-123800</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7570,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7656,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,91 +7742,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>201700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1123300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-692400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-150600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>250900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>865600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1679100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-655300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>32100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>50800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>760800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>519100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>290400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1051800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>677900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>407100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-403100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-98000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>576200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>476200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>98300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-148400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-197600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-161200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>123200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>227200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7666,87 +7914,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-207100</v>
+      </c>
+      <c r="E102" s="3">
         <v>608400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1066500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>431900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>409200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-813400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>728000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>413900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-846300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-706900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>406300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-332300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>966800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-682100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-117900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1056200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-717800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>50800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>584700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-135100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-324200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>788600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>471700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>501400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,199 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3448500</v>
+        <v>3463400</v>
       </c>
       <c r="E8" s="3">
+        <v>3445600</v>
+      </c>
+      <c r="F8" s="3">
         <v>3774200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3363200</v>
       </c>
-      <c r="G8" s="3">
-        <v>3591400</v>
-      </c>
       <c r="H8" s="3">
-        <v>3086600</v>
+        <v>3597200</v>
       </c>
       <c r="I8" s="3">
+        <v>3095500</v>
+      </c>
+      <c r="J8" s="3">
         <v>4091100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3423700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3539400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3208500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3765100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3310700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3114600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4551300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4055500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4469500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3989900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3750700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3777200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4351700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3243900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2893500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3259900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4644400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3192500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3078200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3542800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,8 +1031,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1066,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,8 +1153,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1252,8 +1271,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1270,50 +1289,53 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>8300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>17300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>6800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>9000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>22200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>16600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>14200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>28800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>29000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1338,8 +1360,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
@@ -1356,20 +1378,20 @@
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q15" s="3">
-        <v>3800</v>
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R15" s="3">
         <v>3800</v>
       </c>
       <c r="S15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="T15" s="3">
         <v>3500</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
+      <c r="U15" s="3">
+        <v>3500</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>5</v>
@@ -1380,8 +1402,8 @@
       <c r="X15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1398,8 +1420,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3110600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3034400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3117100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2870800</v>
       </c>
-      <c r="G17" s="3">
-        <v>2761600</v>
-      </c>
       <c r="H17" s="3">
+        <v>2589600</v>
+      </c>
+      <c r="I17" s="3">
         <v>2708200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3482100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2995600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3106800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2594600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3173500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3035600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2616000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4223100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3684000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4123500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3539400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3224400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3534300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3782600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2728500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2436500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2945100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3486600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2826900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2664200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3161500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>414100</v>
+        <v>352800</v>
       </c>
       <c r="E18" s="3">
+        <v>411200</v>
+      </c>
+      <c r="F18" s="3">
         <v>657100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>492400</v>
       </c>
-      <c r="G18" s="3">
-        <v>829800</v>
-      </c>
       <c r="H18" s="3">
-        <v>378400</v>
+        <v>1007600</v>
       </c>
       <c r="I18" s="3">
+        <v>387300</v>
+      </c>
+      <c r="J18" s="3">
         <v>609000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>428100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>432600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>613900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>591600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>275100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>498600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>328200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>371500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>346000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>450500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>526300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>242900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>569100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>515400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>457000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>314800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1157800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>365600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>414000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>381300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,28 +1663,29 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-626600</v>
+        <v>100800</v>
       </c>
       <c r="E20" s="3">
+        <v>-623700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-652200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1237700</v>
       </c>
-      <c r="G20" s="3">
-        <v>3067300</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>2963000</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-8900</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1717,8 +1750,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1761,50 +1797,53 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>496100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>574200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>586000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>636200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>413300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>641900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>631000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>580600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>426500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1274000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>467600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>514400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>449400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1829,8 +1868,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
@@ -1847,21 +1886,21 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1871,8 +1910,8 @@
       <c r="X22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1889,180 +1928,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>453600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-212500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1730100</v>
       </c>
-      <c r="G23" s="3">
-        <v>3897100</v>
-      </c>
       <c r="H23" s="3">
+        <v>3970600</v>
+      </c>
+      <c r="I23" s="3">
         <v>378400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>609000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>428100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>432600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>613900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>591600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>275100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>498600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>328200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>371300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>345700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>450300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>526000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>242900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>569100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>515400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>457000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>314800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1157800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>365600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>414000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>381300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>59900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-78000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-10600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>348700</v>
       </c>
-      <c r="G24" s="3">
-        <v>822500</v>
-      </c>
       <c r="H24" s="3">
+        <v>836700</v>
+      </c>
+      <c r="I24" s="3">
         <v>35200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>103800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>63800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>61000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>97600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>39200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>82500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>43200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>56000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>61100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>58200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>73900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>109100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>55900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>54500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>68600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>344600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>50800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>60400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>43100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>393700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-134500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>15500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1381400</v>
       </c>
-      <c r="G26" s="3">
-        <v>3074600</v>
-      </c>
       <c r="H26" s="3">
+        <v>3133900</v>
+      </c>
+      <c r="I26" s="3">
         <v>343200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>505200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>364300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>371600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>516300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>491500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>235900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>416100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>285000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>315300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>284600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>392100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>452100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>231700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>460000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>459500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>402500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>246200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>813200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>314800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>353600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>338200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>388800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-140100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1385500</v>
       </c>
-      <c r="G27" s="3">
-        <v>3059400</v>
-      </c>
       <c r="H27" s="3">
+        <v>3118700</v>
+      </c>
+      <c r="I27" s="3">
         <v>338700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>471800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>359900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>361800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>517100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>472600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>236000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>398300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>288900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>277100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>386300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>429900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>236500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>456300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>456600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>397100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>245100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>810200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>309500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>348900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>318000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2405,8 +2462,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2455,8 +2515,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2473,12 +2533,12 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>596700</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2491,8 +2551,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,28 +2729,31 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>626600</v>
+        <v>-100800</v>
       </c>
       <c r="E32" s="3">
+        <v>623700</v>
+      </c>
+      <c r="F32" s="3">
         <v>652200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1237700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-3067300</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-2963000</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2749,94 +2818,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>388800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-140100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1385500</v>
       </c>
-      <c r="G33" s="3">
-        <v>3059400</v>
-      </c>
       <c r="H33" s="3">
+        <v>3118700</v>
+      </c>
+      <c r="I33" s="3">
         <v>338700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>471800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>359900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>361800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>517100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>472600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>236000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>398300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>288900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>277100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>386300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>429900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>236500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>456300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>456600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>397100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>841800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>810200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>309500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>348900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>318000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>388800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-140100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1385500</v>
       </c>
-      <c r="G35" s="3">
-        <v>3059400</v>
-      </c>
       <c r="H35" s="3">
+        <v>3118700</v>
+      </c>
+      <c r="I35" s="3">
         <v>338700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>471800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>359900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>361800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>517100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>472600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>236000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>398300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>288900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>277100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>386300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>429900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>236500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>456300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>456600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>397100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>841800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>810200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>309500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>348900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>318000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,94 +3247,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4073900</v>
+      </c>
+      <c r="E41" s="3">
         <v>4640900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4848000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4239600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3173100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2741200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2332000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3145400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2417400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2003500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2849800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3556700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3150400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3482700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2515900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3198000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3315900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2259700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2977500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2926700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2342000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2335700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2470800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2795000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2006400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1534700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2719600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3334,94 +3423,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3858200</v>
+      </c>
+      <c r="E43" s="3">
         <v>3837600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3933300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4336600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4683900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2374400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1842400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1713200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1675700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1708300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1723800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1530200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1760000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1691000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1740300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1635700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1549200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1641100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1413100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1514400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1455600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1638400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1469800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1516600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1381400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1447000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1361900</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3506,8 +3601,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3592,8 +3690,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3678,266 +3779,278 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>95838400</v>
+        <v>94441100</v>
       </c>
       <c r="E47" s="3">
-        <v>93004900</v>
+        <v>95731100</v>
       </c>
       <c r="F47" s="3">
+        <v>92895700</v>
+      </c>
+      <c r="G47" s="3">
         <v>91706600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>95768100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>101043300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>106830500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>104928800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>104033300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>102928500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>104509600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>101252000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>98858900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>94157700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>96056700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>94038200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>90903700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>88324000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>84766600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>84007200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>82404800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>81952800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>82102700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>81203400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>79050500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>77812000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>75835500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3308900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3286300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3235800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3142900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3066900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3159800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3113400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3031000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2972400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2877100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2816300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2780600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2692800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>973800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>967700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>961700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>959500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>933200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>767300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>770600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>762900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>775200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>759500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>754600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>750300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>718800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>699000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3156700</v>
+      </c>
+      <c r="E49" s="3">
         <v>3171600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3131500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3072900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3134500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3262300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3228200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3277800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3377100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3399300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3434000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3358800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3340200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3333000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3480500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3492400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2412200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2420900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2415100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2482600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2458600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2489100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2383500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2369900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2344600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2355500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2346100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,8 +4224,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4194,8 +4313,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>299186900</v>
+      </c>
+      <c r="E54" s="3">
         <v>299408200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>290578300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>282580600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>293220200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>291538500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>304657200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>298908400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>302165500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>295634600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>296627700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>278484800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>271309400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>246903900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>276087800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>270238400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>267918000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>259419900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>243036100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>258758300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>252104000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>253636500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>253941200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>247933600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>240153900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>235496000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>228014300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,8 +4559,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4516,180 +4646,189 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E58" s="3">
         <v>24200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>80700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>66500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>66900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>279400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>79800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>74300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>82700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>84000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>84700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>76600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>76300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>105600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>93400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>96100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>76800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>43900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>42900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>36100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>64500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>78100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>39500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>58800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>42000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>59500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>51400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>226633100</v>
+        <v>227463600</v>
       </c>
       <c r="E59" s="3">
-        <v>219774600</v>
+        <v>226438700</v>
       </c>
       <c r="F59" s="3">
+        <v>219567200</v>
+      </c>
+      <c r="G59" s="3">
         <v>211885500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>221191300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>218522100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>227029900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>222751400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>226757000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>221945000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>220270800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>204706300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>199248400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>179838200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>208008600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>202512800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>203727800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>198723000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>185601300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>201994800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>196987200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>198011900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>198294200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>193274400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>188508900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>185386500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>178689500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4774,180 +4913,189 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3992900</v>
+      </c>
+      <c r="E61" s="3">
         <v>4688600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3997000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3981000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4280700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4280400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4280200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4279700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4279500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4279400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4279200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4279000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4163400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3670100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3765900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3797400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3795400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3302000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3259600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3245500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3219900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3196600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3178400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3175400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3126800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3126200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3125700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1406000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1417100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1324200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1079300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1421800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1373900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2320200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2345600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2324600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2065900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2330800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2106900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2061500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1450300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1796600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1928100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1687500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1318700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>958400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>911400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>887900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>909000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1092500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1515200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1281800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1048100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>972400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>288842400</v>
+      </c>
+      <c r="E66" s="3">
         <v>289190300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>280601600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>273134400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>282183400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>279640900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>288587800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>282837700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>285932400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>280229100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>280068800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>262833900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>256066300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>233996400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>261469800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>255434200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>253883300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>246725500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>231646100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>247057500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>240464700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>241449600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>241091900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>235937200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>228985800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>224879900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>217787000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,8 +5658,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,94 +5836,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16629900</v>
+      </c>
+      <c r="E72" s="3">
         <v>16398800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16697300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>17210900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15985600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13090800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12884500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12583900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12395000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12199200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11838000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11521400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11441400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11198800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11074300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10927800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10805800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10571900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10290200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10207900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9904300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9598300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9482900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>8784600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8112200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7937400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>7720400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10344500</v>
+      </c>
+      <c r="E76" s="3">
         <v>10217900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9976700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9446200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11036800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11897600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>16069400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16070700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16233100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15405500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16558900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15650900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15243100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12907500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14618000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14804200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14034700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12694400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11390000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11700800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11639300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12186900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12849300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11996400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11168100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10616100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10227300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>388800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-140100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1385500</v>
       </c>
-      <c r="G81" s="3">
-        <v>3059400</v>
-      </c>
       <c r="H81" s="3">
+        <v>3118700</v>
+      </c>
+      <c r="I81" s="3">
         <v>338700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>471800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>359900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>361800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>517100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>472600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>236000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>398300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>288900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>277100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>386300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>429900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>236500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>456300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>456600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>397100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>841800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>810200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>309500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>348900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>318000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,8 +6588,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6432,53 +6630,56 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>124600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>228200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>135500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>109900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>170400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>72800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>115600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>123600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>111700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>116200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>102000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>100400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>68100</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,94 +7120,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1102500</v>
+      </c>
+      <c r="E89" s="3">
         <v>695300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1163200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1171000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>807200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1111800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>973400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>992800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>140800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>628200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1064300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>457000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1589100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1028400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1786400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1502000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1176400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1442600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2075700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>891700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>746500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>559300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1799600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1306200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>522900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>930500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,94 +7244,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-31400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-63100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-22900</v>
       </c>
       <c r="L91" s="3">
         <v>-22900</v>
       </c>
       <c r="M91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="N91" s="3">
         <v>-25900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-36500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-28400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-36000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-29400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-18900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-29800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-26000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-29200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-60300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-43800</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-45800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,94 +7509,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1104100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>568500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>587900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-224700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>126800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2790800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1924500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>76400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1019200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1385900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1418800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-912700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-852900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-979900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-735100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-813400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-673300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-656300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,94 +7633,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-154900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-155500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-156200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-157400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-161700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-167000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-168500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-168200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-165200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-152200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-153700</v>
       </c>
       <c r="N96" s="3">
         <v>-153700</v>
       </c>
       <c r="O96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="P96" s="3">
         <v>-153500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-153600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-152400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-153000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-150400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-150200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-152100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-150700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-148500</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-147300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-141500</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-135800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-132700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-130000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-123800</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,94 +7987,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1691200</v>
+      </c>
+      <c r="E100" s="3">
         <v>201700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1123300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-692400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-150600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>250900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>865600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1679100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-655300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>32100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>50800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>760800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>519100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>290400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1051800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>677900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>407100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-403100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-98000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>576200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>476200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>98300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-148400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-197600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-161200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>123200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>227200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7917,90 +8165,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-567000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-207100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>608400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1066500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>431900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>409200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-813400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>728000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>413900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-846300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-706900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>406300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-332300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>966800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-682100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-117900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1056200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-717800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>50800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>584700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-135100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-324200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>788600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>471700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>501400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-37200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PFG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>PFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,205 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3314500</v>
+      </c>
+      <c r="E8" s="3">
         <v>3463400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3445600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3774200</v>
       </c>
-      <c r="G8" s="3">
-        <v>3363200</v>
-      </c>
       <c r="H8" s="3">
+        <v>3387600</v>
+      </c>
+      <c r="I8" s="3">
         <v>3597200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3095500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4091100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3423700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3539400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3208500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3765100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3310700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3114600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4551300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4055500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4469500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3989900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3750700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3777200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4351700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3243900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2893500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3259900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4644400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3192500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>3078200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>3542800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2829300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +951,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1043,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1067,8 +1079,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1156,8 +1169,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1261,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1274,8 +1293,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
@@ -1292,50 +1311,53 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>8300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>17300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>6800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>6600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>9000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>9900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>22200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>16600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>14200</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>28800</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>29000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>11300</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1363,8 +1385,8 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
+      <c r="L15" s="3">
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
@@ -1381,20 +1403,20 @@
       <c r="Q15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R15" s="3">
-        <v>3800</v>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S15" s="3">
         <v>3800</v>
       </c>
       <c r="T15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="U15" s="3">
         <v>3500</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>5</v>
+      <c r="V15" s="3">
+        <v>3500</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>5</v>
@@ -1405,8 +1427,8 @@
       <c r="Y15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1423,8 +1445,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1453,186 +1478,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2616800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3110600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3034400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3117100</v>
       </c>
-      <c r="G17" s="3">
-        <v>2870800</v>
-      </c>
       <c r="H17" s="3">
+        <v>2969300</v>
+      </c>
+      <c r="I17" s="3">
         <v>2589600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2708200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3482100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2995600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3106800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2594600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3173500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3035600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2616000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4223100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3684000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4123500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3539400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3224400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3534300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3782600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2728500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2436500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2945100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3486600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2826900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2664200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3161500</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2458600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>697700</v>
+      </c>
+      <c r="E18" s="3">
         <v>352800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>411200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>657100</v>
       </c>
-      <c r="G18" s="3">
-        <v>492400</v>
-      </c>
       <c r="H18" s="3">
+        <v>418300</v>
+      </c>
+      <c r="I18" s="3">
         <v>1007600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>387300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>609000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>428100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>432600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>613900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>591600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>275100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>498600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>328200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>371500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>346000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>450500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>526300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>242900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>569100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>515400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>457000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>314800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1157800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>365600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>414000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>381300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1664,32 +1696,33 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>907200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-623700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-652200</v>
       </c>
-      <c r="G20" s="3">
-        <v>1237700</v>
-      </c>
       <c r="H20" s="3">
+        <v>1222100</v>
+      </c>
+      <c r="I20" s="3">
         <v>2963000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8900</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1753,8 +1786,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1800,50 +1836,53 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>496100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>574200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>586000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>636200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>413300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>641900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>631000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>580600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>426500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1274000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>467600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>514400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>449400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>509500</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1871,8 +1910,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
@@ -1889,21 +1928,21 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1913,8 +1952,8 @@
       <c r="Y22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1931,186 +1970,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1604900</v>
+      </c>
+      <c r="E23" s="3">
         <v>453600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-212500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4900</v>
       </c>
-      <c r="G23" s="3">
-        <v>1730100</v>
-      </c>
       <c r="H23" s="3">
+        <v>1640400</v>
+      </c>
+      <c r="I23" s="3">
         <v>3970600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>378400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>609000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>428100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>432600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>613900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>591600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>275100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>498600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>328200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>371300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>345700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>450300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>526000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>242900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>569100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>515400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>457000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>314800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1157800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>365600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>414000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>381300</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>370700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>354800</v>
+      </c>
+      <c r="E24" s="3">
         <v>59900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-78000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-10600</v>
       </c>
-      <c r="G24" s="3">
-        <v>348700</v>
-      </c>
       <c r="H24" s="3">
+        <v>328800</v>
+      </c>
+      <c r="I24" s="3">
         <v>836700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>103800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>61000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>97600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>39200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>82500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>43200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>56000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>61100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>58200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>73900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>109100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>55900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>54500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>68600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>344600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>50800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>60400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>43100</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>43300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,186 +2246,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1250100</v>
+      </c>
+      <c r="E26" s="3">
         <v>393700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-134500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>15500</v>
       </c>
-      <c r="G26" s="3">
-        <v>1381400</v>
-      </c>
       <c r="H26" s="3">
+        <v>1311600</v>
+      </c>
+      <c r="I26" s="3">
         <v>3133900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>343200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>505200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>364300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>371600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>516300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>491500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>235900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>416100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>285000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>315300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>284600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>392100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>452100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>231700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>460000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>459500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>402500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>246200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>813200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>314800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>353600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>338200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>327400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1246200</v>
+      </c>
+      <c r="E27" s="3">
         <v>388800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-140100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9500</v>
       </c>
-      <c r="G27" s="3">
-        <v>1385500</v>
-      </c>
       <c r="H27" s="3">
+        <v>1315700</v>
+      </c>
+      <c r="I27" s="3">
         <v>3118700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>338700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>471800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>359900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>361800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>517100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>472600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>236000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>398300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>288900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>277100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>386300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>429900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>236500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>456300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>456600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>397100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>245100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>810200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>309500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>348900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>318000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2465,8 +2522,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2518,8 +2578,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2536,12 +2596,12 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>596700</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2554,8 +2614,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2706,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2732,32 +2798,35 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-907200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>623700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>652200</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1237700</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1222100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2963000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8900</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2821,97 +2890,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1246200</v>
+      </c>
+      <c r="E33" s="3">
         <v>388800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-140100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9500</v>
       </c>
-      <c r="G33" s="3">
-        <v>1385500</v>
-      </c>
       <c r="H33" s="3">
+        <v>1315700</v>
+      </c>
+      <c r="I33" s="3">
         <v>3118700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>338700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>471800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>359900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>361800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>517100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>472600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>236000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>398300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>288900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>277100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>386300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>429900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>236500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>456300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>456600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>397100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>841800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>810200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>309500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>348900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>318000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2999,191 +3074,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1246200</v>
+      </c>
+      <c r="E35" s="3">
         <v>388800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-140100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9500</v>
       </c>
-      <c r="G35" s="3">
-        <v>1385500</v>
-      </c>
       <c r="H35" s="3">
+        <v>1315700</v>
+      </c>
+      <c r="I35" s="3">
         <v>3118700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>338700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>471800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>359900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>361800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>517100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>472600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>236000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>398300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>288900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>277100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>386300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>429900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>236500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>456300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>456600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>397100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>841800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>810200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>309500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>348900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>318000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,8 +3299,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3248,97 +3333,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4564300</v>
+      </c>
+      <c r="E41" s="3">
         <v>4073900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4640900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4848000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4239600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3173100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2741200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2332000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3145400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2417400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2003500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2849800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3556700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3150400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3482700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2515900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3198000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3315900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2259700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2977500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2926700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2342000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2335700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2470800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2795000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2006400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1534700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2719600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2218200</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3426,97 +3515,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3897000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3858200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3837600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3933300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4336600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4683900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2374400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1842400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1713200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1675700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1708300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1723800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1530200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1760000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1691000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1740300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1635700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1549200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1641100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1413100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1514400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1455600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1638400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1469800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1516600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1381400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1447000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1361900</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1382800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3604,8 +3699,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3693,8 +3791,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3782,275 +3883,287 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>91661900</v>
+      </c>
+      <c r="E47" s="3">
         <v>94441100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>95731100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>92895700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>91706600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>95768100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>101043300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>106830500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>104928800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>104033300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>102928500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>104509600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>101252000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>98858900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>94157700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>96056700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>94038200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>90903700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>88324000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>84766600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>84007200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>82404800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>81952800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>82102700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>81203400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>79050500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>77812000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>75835500</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>77758500</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3279000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3308900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3286300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3235800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3142900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3066900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3159800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3113400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3031000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2972400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2877100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2816300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2780600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2692800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>973800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>967700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>961700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>959500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>933200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>767300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>770600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>762900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>775200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>759500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>754600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>750300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>718800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>699000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>674500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3074000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3156700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3171600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3131500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3072900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3134500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3262300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3228200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3277800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3377100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3399300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3434000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3358800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3340200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3333000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3480500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3492400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2412200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2420900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2415100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2482600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2458600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2489100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2383500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2369900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2344600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2355500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2346100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2381100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4138,8 +4251,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4227,8 +4343,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4316,8 +4435,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4405,97 +4527,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>287948000</v>
+      </c>
+      <c r="E54" s="3">
         <v>299186900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>299408200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>290578300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>282580600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>293220200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>291538500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>304657200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>298908400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>302165500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>295634600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>296627700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>278484800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>271309400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>246903900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>276087800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>270238400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>267918000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>259419900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>243036100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>258758300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>252104000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>253636500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>253941200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>247933600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>240153900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>235496000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>228014300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>230367600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4527,8 +4655,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4560,8 +4689,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4649,186 +4779,195 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E58" s="3">
         <v>26300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>80700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>66500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>66900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>279400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>79800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>74300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>82700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>84000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>84700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>76600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>76300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>105600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>93400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>96100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>76800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>43900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>42900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>36100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>64500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>78100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>39500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>58800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>42000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>59500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>51400</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>39900</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>217295800</v>
+      </c>
+      <c r="E59" s="3">
         <v>227463600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>226438700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>219567200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>211885500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>221191300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>218522100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>227029900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>222751400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>226757000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>221945000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>220270800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>204706300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>199248400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>179838200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>208008600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>202512800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>203727800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>198723000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>185601300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>201994800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>196987200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>198011900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>198294200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>193274400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>188508900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>185386500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>178689500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>179763600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4916,186 +5055,195 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3930200</v>
+      </c>
+      <c r="E61" s="3">
         <v>3992900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4688600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3997000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3981000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4280700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4280400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4280200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4279700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4279500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4279400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4279200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4279000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4163400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3670100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3765900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3797400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3795400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3302000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3259600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3245500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3219900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3196600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3178400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3175400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3126800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3126200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3125700</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>3278200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1481400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1406000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1417100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1324200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1079300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1421800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1373900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2320200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2345600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2324600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2065900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2330800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2106900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2061500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1450300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1796600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1928100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1687500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1318700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>958400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>911400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>887900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>909000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1092500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1515200</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1281800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1048100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>972400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1229900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,8 +5331,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5272,8 +5423,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5361,97 +5515,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>277276400</v>
+      </c>
+      <c r="E66" s="3">
         <v>288842400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>289190300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>280601600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>273134400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>282183400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>279640900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>288587800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>282837700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>285932400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>280229100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>280068800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>262833900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>256066300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>233996400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>261469800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>255434200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>253883300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>246725500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>231646100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>247057500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>240464700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>241449600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>241091900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>235937200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>228985800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>224879900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>217787000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>219573000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5483,8 +5643,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5572,8 +5733,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5661,8 +5825,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5750,8 +5917,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5839,97 +6009,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17717000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16629900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16398800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16697300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>17210900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15985600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13090800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>12884500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12583900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12395000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12199200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11838000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11521400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11441400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11198800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11074300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10927800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10805800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10571900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10290200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10207900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9904300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9598300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9482900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>8784600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>8112200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>7937400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>7720400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>7528100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6017,8 +6193,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6106,8 +6285,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6195,97 +6377,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10671600</v>
+      </c>
+      <c r="E76" s="3">
         <v>10344500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10217900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9976700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9446200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11036800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11897600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>16069400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16070700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16233100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15405500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16558900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15650900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15243100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12907500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14618000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14804200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14034700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12694400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11390000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11700800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11639300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12186900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12849300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11996400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11168100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10616100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10227300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>10794600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6373,191 +6561,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1246200</v>
+      </c>
+      <c r="E81" s="3">
         <v>388800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-140100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9500</v>
       </c>
-      <c r="G81" s="3">
-        <v>1385500</v>
-      </c>
       <c r="H81" s="3">
+        <v>1315700</v>
+      </c>
+      <c r="I81" s="3">
         <v>3118700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>338700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>471800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>359900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>361800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>517100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>472600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>236000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>398300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>288900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>277100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>386300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>429900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>236500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>456300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>456600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>397100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>841800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>810200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>309500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>348900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>318000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>308200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6589,8 +6786,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6633,53 +6831,56 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>124600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>228200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>135500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>109900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>170400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>72800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>115600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>123600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>111700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>116200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>102000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>100400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>68100</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>138800</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6767,8 +6968,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6856,8 +7060,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6945,8 +7152,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7034,8 +7244,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7123,97 +7336,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1050600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1102500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>695300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1163200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1171000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>807200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1111800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>973400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>992800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>140800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>628200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1064300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>457000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1589100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1028400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1786400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1502000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1176400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1442600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2075700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>891700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>746500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>559300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1799600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1306200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>522900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>930500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>801700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7245,97 +7464,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-34600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-63100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-22900</v>
       </c>
       <c r="M91" s="3">
         <v>-22900</v>
       </c>
       <c r="N91" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="O91" s="3">
         <v>-25900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-36500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-28400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-36000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-29400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-29800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-26000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-29200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-60300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-43800</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-45800</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-34400</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7423,8 +7646,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7512,97 +7738,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-49500</v>
+      </c>
+      <c r="E94" s="3">
         <v>21700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1104100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>568500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>587900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-224700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>126800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2790800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1924500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>76400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1019200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1385900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1418800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1308400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-912700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2762300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2582200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-852900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1491100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1293800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2067200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1361600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-979900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-735100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-813400</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-673300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1831000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-656300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-823600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7634,97 +7866,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-156100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-154900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-155500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-156200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-157400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-161700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-167000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-168500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-168200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-165200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-152200</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-153700</v>
       </c>
       <c r="O96" s="3">
         <v>-153700</v>
       </c>
       <c r="P96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-153500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-153600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-152400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-153000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-150400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-150200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-152100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-150700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-148500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-147300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-141500</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-135800</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-132700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-130000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-123800</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-117900</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7812,8 +8048,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7901,8 +8140,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7990,97 +8232,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-510700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1691200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>201700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1123300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-692400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-150600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>250900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>865600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1679100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-655300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>32100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>50800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>760800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>519100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>290400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1051800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>677900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>407100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-403100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-98000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>576200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>476200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>98300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-148400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-197600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-161200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>123200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>227200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-15300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8168,93 +8416,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>490400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-567000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-207100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>608400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1066500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>431900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>409200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-813400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>728000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>413900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-846300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-706900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>406300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-332300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>966800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-682100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-117900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1056200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-717800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>50800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>584700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-135100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-324200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>788600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>471700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1184900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>501400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-37200</v>
       </c>
     </row>
